--- a/src/images/MMG Import Template.xlsx
+++ b/src/images/MMG Import Template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Big Pixel\Dropbox\Big Pixel Clients\BeaconMedaes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Big Pixel - Surface\Dropbox\Big Pixel Clients\BeaconMedaes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{516D33B0-7EF0-418D-9F83-D21535927C08}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{368514BD-0E6B-40B6-A02C-4E61729A2EEA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6795" yWindow="4350" windowWidth="40125" windowHeight="17355" tabRatio="900" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="450" windowWidth="20520" windowHeight="13230" tabRatio="900" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Rem" sheetId="6" state="hidden" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="433">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="432">
   <si>
     <t>Product SKU</t>
   </si>
@@ -1005,9 +1005,6 @@
   </si>
   <si>
     <t>BM - triplex</t>
-  </si>
-  <si>
-    <t>CMS</t>
   </si>
   <si>
     <t xml:space="preserve">MIM </t>
@@ -2085,51 +2082,48 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="42" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="42" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="42" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="42" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="36" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="39" borderId="0" xfId="0" applyFill="1"/>
@@ -2138,12 +2132,11 @@
     <xf numFmtId="0" fontId="0" fillId="42" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="43" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="44" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="45" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="46" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="43">
@@ -3396,10 +3389,10 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="A1:G74" totalsRowShown="0" dataDxfId="8" tableBorderDxfId="7" dataCellStyle="Normal_tblMfgName_Generic Part Number and Serial Number Schema 7-10-10">
-  <autoFilter ref="A1:G74" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G74">
-    <sortCondition ref="C1:C74"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="A1:G73" totalsRowShown="0" dataDxfId="8" tableBorderDxfId="7" dataCellStyle="Normal_tblMfgName_Generic Part Number and Serial Number Schema 7-10-10">
+  <autoFilter ref="A1:G73" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G73">
+    <sortCondition ref="C1:C73"/>
   </sortState>
   <tableColumns count="7">
     <tableColumn id="3" xr3:uid="{1FFC7A15-B321-4E67-9E47-60CAC7111159}" name="Code" dataDxfId="6" dataCellStyle="Normal_tblMfgName_Generic Part Number and Serial Number Schema 7-10-10"/>
@@ -3717,23 +3710,23 @@
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="29.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.1328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.3984375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" customWidth="1"/>
-    <col min="5" max="5" width="62.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="62.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A2" s="8" t="s">
         <v>147</v>
       </c>
       <c r="B2" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="C4" t="s">
         <v>151</v>
       </c>
@@ -3750,7 +3743,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>1</v>
       </c>
@@ -3758,7 +3751,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
         <v>150</v>
       </c>
@@ -3775,7 +3768,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
         <v>153</v>
       </c>
@@ -3786,7 +3779,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>2</v>
       </c>
@@ -3794,7 +3787,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B10" t="s">
         <v>157</v>
       </c>
@@ -3814,7 +3807,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
         <v>161</v>
       </c>
@@ -3834,7 +3827,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>3</v>
       </c>
@@ -3842,17 +3835,17 @@
         <v>170</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B14" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B15" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B16" t="s">
         <v>172</v>
       </c>
@@ -3863,7 +3856,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B17" t="s">
         <v>173</v>
       </c>
@@ -3877,12 +3870,12 @@
         <v>174</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B19" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.45">
       <c r="C20" t="s">
         <v>183</v>
       </c>
@@ -3896,105 +3889,104 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+    <sheetView tabSelected="1" topLeftCell="F13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="14.25" outlineLevelCol="1" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="19.42578125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="21.42578125" style="17" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="17.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="4" customWidth="1" outlineLevel="1"/>
-    <col min="6" max="6" width="13.7109375" style="4" customWidth="1" outlineLevel="1"/>
-    <col min="7" max="7" width="13.140625" style="4" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="8" width="12.28515625" style="4" customWidth="1" outlineLevel="1"/>
-    <col min="9" max="9" width="18.85546875" style="4" customWidth="1" outlineLevel="1"/>
-    <col min="10" max="10" width="26.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="29.28515625" style="4" customWidth="1"/>
-    <col min="12" max="12" width="18.5703125" style="4" customWidth="1"/>
-    <col min="13" max="14" width="13.28515625" style="8" customWidth="1"/>
-    <col min="15" max="15" width="25.42578125" style="8" customWidth="1"/>
-    <col min="16" max="16" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.5703125" style="8" customWidth="1"/>
-    <col min="18" max="18" width="43.7109375" style="8" customWidth="1"/>
-    <col min="19" max="19" width="45.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15" style="8" customWidth="1"/>
-    <col min="21" max="21" width="24.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="8.7109375" style="8"/>
+    <col min="1" max="1" width="19.3984375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="21.3984375" style="14" customWidth="1"/>
+    <col min="3" max="3" width="14.3984375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="17.1328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.59765625" style="4" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="6" width="13.73046875" style="4" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="13.1328125" style="4" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="12.265625" style="4" customWidth="1" outlineLevel="1"/>
+    <col min="9" max="9" width="18.86328125" style="4" customWidth="1" outlineLevel="1"/>
+    <col min="10" max="10" width="26.265625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="29.265625" style="4" customWidth="1"/>
+    <col min="12" max="12" width="18.59765625" style="4" customWidth="1"/>
+    <col min="13" max="14" width="13.265625" customWidth="1"/>
+    <col min="15" max="15" width="25.3984375" customWidth="1"/>
+    <col min="16" max="16" width="10.3984375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.59765625" customWidth="1"/>
+    <col min="18" max="18" width="43.73046875" customWidth="1"/>
+    <col min="19" max="19" width="45.265625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15" customWidth="1"/>
+    <col min="21" max="21" width="24.73046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="14" customFormat="1" ht="27.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:19" s="12" customFormat="1" ht="27.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="14" t="s">
-        <v>431</v>
-      </c>
-      <c r="F1" s="14" t="s">
+      <c r="E1" s="12" t="s">
+        <v>430</v>
+      </c>
+      <c r="F1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="I1" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="J1" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="K1" s="15" t="s">
+      <c r="K1" s="13" t="s">
         <v>192</v>
       </c>
-      <c r="L1" s="15" t="s">
+      <c r="L1" s="13" t="s">
         <v>193</v>
       </c>
-      <c r="M1" s="15" t="s">
+      <c r="M1" s="13" t="s">
         <v>226</v>
       </c>
-      <c r="N1" s="15" t="s">
+      <c r="N1" s="13" t="s">
         <v>202</v>
       </c>
-      <c r="O1" s="15" t="s">
+      <c r="O1" s="13" t="s">
         <v>194</v>
       </c>
-      <c r="P1" s="15" t="s">
+      <c r="P1" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="Q1" s="14" t="s">
+      <c r="Q1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="R1" s="14" t="s">
+      <c r="R1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="S1" s="14" t="s">
+      <c r="S1" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="17">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A2" s="14">
         <v>860278</v>
       </c>
       <c r="B2" s="4"/>
-      <c r="H2" s="18"/>
+      <c r="H2" s="15"/>
       <c r="J2" s="4" t="s">
         <v>42</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="L2" s="4" t="s">
         <v>267</v>
@@ -4009,20 +4001,20 @@
       <c r="P2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="Q2" s="19">
+      <c r="Q2" s="16">
         <v>5004980</v>
       </c>
       <c r="R2" s="4"/>
       <c r="S2" s="4"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="17">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A3" s="14">
         <v>7132</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="H3" s="18"/>
+      <c r="H3" s="15"/>
       <c r="J3" s="4" t="s">
         <v>37</v>
       </c>
@@ -4040,26 +4032,26 @@
       </c>
       <c r="O3" s="4"/>
       <c r="P3" s="4"/>
-      <c r="Q3" s="19" t="s">
+      <c r="Q3" s="16" t="s">
         <v>277</v>
       </c>
       <c r="R3" s="4"/>
       <c r="S3" s="4"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="17" t="s">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A4" s="14" t="s">
         <v>288</v>
       </c>
       <c r="B4" s="4"/>
       <c r="E4" s="4" t="s">
-        <v>432</v>
-      </c>
-      <c r="H4" s="18"/>
+        <v>431</v>
+      </c>
+      <c r="H4" s="15"/>
       <c r="J4" s="4" t="s">
         <v>52</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="L4" s="4" t="s">
         <v>18</v>
@@ -4074,21 +4066,21 @@
       <c r="P4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="Q4" s="19"/>
+      <c r="Q4" s="16"/>
       <c r="R4" s="4" t="s">
         <v>279</v>
       </c>
       <c r="S4" s="4"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="17"/>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A5" s="14"/>
       <c r="B5" s="4"/>
-      <c r="H5" s="18"/>
+      <c r="H5" s="15"/>
       <c r="J5" s="4" t="s">
         <v>52</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="L5" s="4" t="s">
         <v>18</v>
@@ -4103,20 +4095,20 @@
       <c r="P5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="Q5" s="19" t="s">
+      <c r="Q5" s="16" t="s">
         <v>280</v>
       </c>
       <c r="R5" s="4"/>
       <c r="S5" s="4"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A6" s="14" t="s">
         <v>282</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="H6" s="18"/>
+      <c r="H6" s="15"/>
       <c r="J6" s="4" t="s">
         <v>52</v>
       </c>
@@ -4130,22 +4122,22 @@
         <v>255</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="O6" s="4"/>
       <c r="P6" s="4"/>
-      <c r="Q6" s="19" t="s">
+      <c r="Q6" s="16" t="s">
         <v>281</v>
       </c>
       <c r="R6" s="4"/>
       <c r="S6" s="4"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="17"/>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A7" s="14"/>
       <c r="B7" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="H7" s="18"/>
+      <c r="H7" s="15"/>
       <c r="J7" s="4" t="s">
         <v>52</v>
       </c>
@@ -4159,22 +4151,22 @@
         <v>255</v>
       </c>
       <c r="N7" s="4" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="O7" s="4"/>
       <c r="P7" s="4"/>
-      <c r="Q7" s="19"/>
+      <c r="Q7" s="16"/>
       <c r="R7" s="4"/>
       <c r="S7" s="4"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="17" t="s">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A8" s="14" t="s">
         <v>285</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="H8" s="18"/>
+      <c r="H8" s="15"/>
       <c r="J8" s="4" t="s">
         <v>52</v>
       </c>
@@ -4188,22 +4180,22 @@
         <v>256</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="O8" s="4"/>
       <c r="P8" s="4"/>
-      <c r="Q8" s="19" t="s">
+      <c r="Q8" s="16" t="s">
         <v>284</v>
       </c>
       <c r="R8" s="4"/>
       <c r="S8" s="4"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="17"/>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A9" s="14"/>
       <c r="B9" s="4" t="s">
         <v>287</v>
       </c>
-      <c r="H9" s="18"/>
+      <c r="H9" s="15"/>
       <c r="J9" s="4" t="s">
         <v>45</v>
       </c>
@@ -4217,17 +4209,19 @@
       <c r="N9" s="4"/>
       <c r="O9" s="4"/>
       <c r="P9" s="4"/>
-      <c r="Q9" s="19"/>
+      <c r="Q9" s="16"/>
       <c r="R9" s="4"/>
       <c r="S9" s="4"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="17">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A10" s="14">
         <v>8440</v>
       </c>
       <c r="B10" s="4"/>
-      <c r="H10" s="18"/>
-      <c r="J10" s="4"/>
+      <c r="H10" s="15"/>
+      <c r="J10" s="4" t="s">
+        <v>52</v>
+      </c>
       <c r="K10" s="4" t="s">
         <v>216</v>
       </c>
@@ -4238,26 +4232,26 @@
       <c r="N10" s="4"/>
       <c r="O10" s="4"/>
       <c r="P10" s="4"/>
-      <c r="Q10" s="19"/>
+      <c r="Q10" s="16"/>
       <c r="R10" s="4"/>
       <c r="S10" s="4"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="17" t="s">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A11" s="14" t="s">
         <v>293</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>292</v>
       </c>
-      <c r="H11" s="18"/>
+      <c r="H11" s="15"/>
       <c r="J11" s="4" t="s">
         <v>21</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="M11" s="4" t="s">
         <v>224</v>
@@ -4266,31 +4260,31 @@
         <v>16</v>
       </c>
       <c r="O11" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="P11" s="4"/>
-      <c r="Q11" s="19"/>
+      <c r="Q11" s="16"/>
       <c r="R11" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="S11" s="4"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="17" t="s">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A12" s="14" t="s">
         <v>297</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>294</v>
       </c>
-      <c r="H12" s="18"/>
+      <c r="H12" s="15"/>
       <c r="J12" s="4" t="s">
         <v>21</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="L12" s="4" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="M12" s="4" t="s">
         <v>224</v>
@@ -4300,28 +4294,28 @@
       </c>
       <c r="O12" s="4"/>
       <c r="P12" s="4"/>
-      <c r="Q12" s="19"/>
+      <c r="Q12" s="16"/>
       <c r="R12" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="S12" s="4"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="17" t="s">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A13" s="14" t="s">
         <v>296</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>295</v>
       </c>
-      <c r="H13" s="18"/>
+      <c r="H13" s="15"/>
       <c r="J13" s="4" t="s">
         <v>37</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="M13" s="4" t="s">
         <v>224</v>
@@ -4331,28 +4325,28 @@
       </c>
       <c r="O13" s="4"/>
       <c r="P13" s="4"/>
-      <c r="Q13" s="19"/>
+      <c r="Q13" s="16"/>
       <c r="R13" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="S13" s="4"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="17" t="s">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A14" s="14" t="s">
         <v>298</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>325</v>
-      </c>
-      <c r="H14" s="18"/>
+        <v>324</v>
+      </c>
+      <c r="H14" s="15"/>
       <c r="J14" s="4" t="s">
         <v>36</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="M14" s="4" t="s">
         <v>224</v>
@@ -4362,26 +4356,26 @@
       </c>
       <c r="O14" s="4"/>
       <c r="P14" s="4"/>
-      <c r="Q14" s="19"/>
+      <c r="Q14" s="16"/>
       <c r="R14" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="S14" s="4"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="17"/>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A15" s="14"/>
       <c r="B15" s="4" t="s">
-        <v>326</v>
-      </c>
-      <c r="H15" s="18"/>
+        <v>325</v>
+      </c>
+      <c r="H15" s="15"/>
       <c r="J15" s="4" t="s">
         <v>37</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="L15" s="4" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="M15" s="4" t="s">
         <v>224</v>
@@ -4391,26 +4385,26 @@
       </c>
       <c r="O15" s="4"/>
       <c r="P15" s="4"/>
-      <c r="Q15" s="19"/>
+      <c r="Q15" s="16"/>
       <c r="R15" s="4" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="S15" s="4"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="17"/>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A16" s="14"/>
       <c r="B16" s="4" t="s">
-        <v>327</v>
-      </c>
-      <c r="H16" s="18"/>
+        <v>326</v>
+      </c>
+      <c r="H16" s="15"/>
       <c r="J16" s="4" t="s">
         <v>37</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="L16" s="4" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="M16" s="4" t="s">
         <v>224</v>
@@ -4420,28 +4414,28 @@
       </c>
       <c r="O16" s="4"/>
       <c r="P16" s="4"/>
-      <c r="Q16" s="19"/>
+      <c r="Q16" s="16"/>
       <c r="R16" s="4" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="S16" s="4"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" s="17" t="s">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A17" s="14" t="s">
         <v>299</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>328</v>
-      </c>
-      <c r="H17" s="18"/>
+        <v>327</v>
+      </c>
+      <c r="H17" s="15"/>
       <c r="J17" s="4" t="s">
         <v>21</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="L17" s="4" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="M17" s="4" t="s">
         <v>224</v>
@@ -4451,28 +4445,28 @@
       </c>
       <c r="O17" s="4"/>
       <c r="P17" s="4"/>
-      <c r="Q17" s="19"/>
+      <c r="Q17" s="16"/>
       <c r="R17" s="4" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="S17" s="4"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" s="17" t="s">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A18" s="14" t="s">
         <v>300</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>294</v>
       </c>
-      <c r="H18" s="18"/>
+      <c r="H18" s="15"/>
       <c r="J18" s="4" t="s">
         <v>21</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="L18" s="4" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="M18" s="4" t="s">
         <v>224</v>
@@ -4482,28 +4476,28 @@
       </c>
       <c r="O18" s="4"/>
       <c r="P18" s="4"/>
-      <c r="Q18" s="19"/>
+      <c r="Q18" s="16"/>
       <c r="R18" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="S18" s="4"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="17" t="s">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A19" s="14" t="s">
         <v>301</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>329</v>
-      </c>
-      <c r="H19" s="18"/>
+        <v>328</v>
+      </c>
+      <c r="H19" s="15"/>
       <c r="J19" s="4" t="s">
         <v>36</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="L19" s="4" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="M19" s="4" t="s">
         <v>224</v>
@@ -4511,28 +4505,28 @@
       <c r="N19" s="4"/>
       <c r="O19" s="4"/>
       <c r="P19" s="4"/>
-      <c r="Q19" s="19"/>
+      <c r="Q19" s="16"/>
       <c r="R19" s="4" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="S19" s="4"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" s="17" t="s">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A20" s="14" t="s">
         <v>302</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>295</v>
       </c>
-      <c r="H20" s="18"/>
+      <c r="H20" s="15"/>
       <c r="J20" s="4" t="s">
         <v>37</v>
       </c>
       <c r="K20" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="L20" s="4" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="M20" s="4" t="s">
         <v>224</v>
@@ -4542,28 +4536,28 @@
       </c>
       <c r="O20" s="4"/>
       <c r="P20" s="4"/>
-      <c r="Q20" s="19"/>
+      <c r="Q20" s="16"/>
       <c r="R20" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="S20" s="4"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" s="17" t="s">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A21" s="14" t="s">
         <v>303</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>330</v>
-      </c>
-      <c r="H21" s="18"/>
+        <v>329</v>
+      </c>
+      <c r="H21" s="15"/>
       <c r="J21" s="4" t="s">
         <v>37</v>
       </c>
       <c r="K21" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="L21" s="4" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="M21" s="4" t="s">
         <v>224</v>
@@ -4573,28 +4567,28 @@
       </c>
       <c r="O21" s="4"/>
       <c r="P21" s="4"/>
-      <c r="Q21" s="19"/>
+      <c r="Q21" s="16"/>
       <c r="R21" s="4" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="S21" s="4"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A22" s="17" t="s">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A22" s="14" t="s">
         <v>278</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>331</v>
-      </c>
-      <c r="H22" s="18"/>
+        <v>330</v>
+      </c>
+      <c r="H22" s="15"/>
       <c r="J22" s="4" t="s">
         <v>36</v>
       </c>
       <c r="K22" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="L22" s="4" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="M22" s="4" t="s">
         <v>224</v>
@@ -4604,28 +4598,28 @@
       </c>
       <c r="O22" s="4"/>
       <c r="P22" s="4"/>
-      <c r="Q22" s="19"/>
+      <c r="Q22" s="16"/>
       <c r="R22" s="4" t="s">
         <v>23</v>
       </c>
       <c r="S22" s="4"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A23" s="17" t="s">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A23" s="14" t="s">
         <v>304</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>332</v>
-      </c>
-      <c r="H23" s="18"/>
+        <v>331</v>
+      </c>
+      <c r="H23" s="15"/>
       <c r="J23" s="4" t="s">
         <v>36</v>
       </c>
       <c r="K23" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="L23" s="4" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="M23" s="4" t="s">
         <v>224</v>
@@ -4635,26 +4629,26 @@
       </c>
       <c r="O23" s="4"/>
       <c r="P23" s="4"/>
-      <c r="Q23" s="19"/>
+      <c r="Q23" s="16"/>
       <c r="R23" s="4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="S23" s="4"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A24" s="17"/>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A24" s="14"/>
       <c r="B24" s="4" t="s">
         <v>317</v>
       </c>
-      <c r="H24" s="18"/>
+      <c r="H24" s="15"/>
       <c r="J24" s="4" t="s">
         <v>21</v>
       </c>
       <c r="K24" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="L24" s="4" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="M24" s="4" t="s">
         <v>224</v>
@@ -4664,28 +4658,28 @@
       </c>
       <c r="O24" s="4"/>
       <c r="P24" s="4"/>
-      <c r="Q24" s="19"/>
+      <c r="Q24" s="16"/>
       <c r="R24" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="S24" s="4"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A25" s="17" t="s">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A25" s="14" t="s">
         <v>305</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>333</v>
-      </c>
-      <c r="H25" s="18"/>
+        <v>332</v>
+      </c>
+      <c r="H25" s="15"/>
       <c r="J25" s="4" t="s">
         <v>290</v>
       </c>
       <c r="K25" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="L25" s="4" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="M25" s="4" t="s">
         <v>224</v>
@@ -4695,28 +4689,28 @@
       </c>
       <c r="O25" s="4"/>
       <c r="P25" s="4"/>
-      <c r="Q25" s="19"/>
+      <c r="Q25" s="16"/>
       <c r="R25" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="S25" s="4"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A26" s="17" t="s">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A26" s="14" t="s">
         <v>306</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="H26" s="18"/>
+        <v>333</v>
+      </c>
+      <c r="H26" s="15"/>
       <c r="J26" s="4" t="s">
         <v>21</v>
       </c>
       <c r="K26" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="L26" s="4" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="M26" s="4" t="s">
         <v>224</v>
@@ -4726,28 +4720,28 @@
       </c>
       <c r="O26" s="4"/>
       <c r="P26" s="4"/>
-      <c r="Q26" s="19"/>
+      <c r="Q26" s="16"/>
       <c r="R26" s="4" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="S26" s="4"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A27" s="17" t="s">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A27" s="14" t="s">
         <v>307</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>335</v>
-      </c>
-      <c r="H27" s="18"/>
+        <v>334</v>
+      </c>
+      <c r="H27" s="15"/>
       <c r="J27" s="4" t="s">
         <v>21</v>
       </c>
       <c r="K27" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="L27" s="4" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="M27" s="4" t="s">
         <v>224</v>
@@ -4757,26 +4751,26 @@
       </c>
       <c r="O27" s="4"/>
       <c r="P27" s="4"/>
-      <c r="Q27" s="19"/>
+      <c r="Q27" s="16"/>
       <c r="R27" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="S27" s="4"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A28" s="17"/>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A28" s="14"/>
       <c r="B28" s="4" t="s">
-        <v>321</v>
-      </c>
-      <c r="H28" s="18"/>
+        <v>320</v>
+      </c>
+      <c r="H28" s="15"/>
       <c r="J28" s="4" t="s">
         <v>36</v>
       </c>
       <c r="K28" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="L28" s="4" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="M28" s="4" t="s">
         <v>224</v>
@@ -4786,26 +4780,26 @@
       </c>
       <c r="O28" s="4"/>
       <c r="P28" s="4"/>
-      <c r="Q28" s="19"/>
+      <c r="Q28" s="16"/>
       <c r="R28" s="4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="S28" s="4"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A29" s="17"/>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A29" s="14"/>
       <c r="B29" s="4" t="s">
-        <v>336</v>
-      </c>
-      <c r="H29" s="18"/>
+        <v>335</v>
+      </c>
+      <c r="H29" s="15"/>
       <c r="J29" s="4" t="s">
         <v>26</v>
       </c>
       <c r="K29" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="L29" s="4" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="M29" s="4" t="s">
         <v>224</v>
@@ -4815,65 +4809,65 @@
       </c>
       <c r="O29" s="4"/>
       <c r="P29" s="4"/>
-      <c r="Q29" s="19"/>
+      <c r="Q29" s="16"/>
       <c r="R29" s="4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="S29" s="4"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A30" s="20" t="s">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A30" s="17" t="s">
         <v>308</v>
       </c>
-      <c r="B30" s="21" t="s">
-        <v>337</v>
-      </c>
-      <c r="C30" s="21"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="21"/>
-      <c r="F30" s="21"/>
-      <c r="G30" s="21"/>
-      <c r="H30" s="22"/>
-      <c r="I30" s="21"/>
-      <c r="J30" s="21" t="s">
+      <c r="B30" s="18" t="s">
+        <v>336</v>
+      </c>
+      <c r="C30" s="18"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="18"/>
+      <c r="H30" s="19"/>
+      <c r="I30" s="18"/>
+      <c r="J30" s="18" t="s">
         <v>21</v>
       </c>
       <c r="K30" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="L30" s="4" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="M30" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="N30" s="21" t="s">
+      <c r="N30" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="O30" s="21"/>
-      <c r="P30" s="21"/>
-      <c r="Q30" s="23"/>
-      <c r="R30" s="21" t="s">
-        <v>356</v>
-      </c>
-      <c r="S30" s="21"/>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A31" s="17" t="s">
+      <c r="O30" s="18"/>
+      <c r="P30" s="18"/>
+      <c r="Q30" s="20"/>
+      <c r="R30" s="18" t="s">
+        <v>355</v>
+      </c>
+      <c r="S30" s="18"/>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A31" s="14" t="s">
         <v>309</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>322</v>
-      </c>
-      <c r="H31" s="18"/>
+        <v>321</v>
+      </c>
+      <c r="H31" s="15"/>
       <c r="J31" s="4" t="s">
         <v>21</v>
       </c>
       <c r="K31" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="L31" s="4" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="M31" s="4" t="s">
         <v>224</v>
@@ -4883,28 +4877,28 @@
       </c>
       <c r="O31" s="4"/>
       <c r="P31" s="4"/>
-      <c r="Q31" s="19"/>
+      <c r="Q31" s="16"/>
       <c r="R31" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="S31" s="4"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A32" s="17" t="s">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A32" s="14" t="s">
         <v>310</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>338</v>
-      </c>
-      <c r="H32" s="18"/>
+        <v>337</v>
+      </c>
+      <c r="H32" s="15"/>
       <c r="J32" s="4" t="s">
         <v>21</v>
       </c>
       <c r="K32" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="L32" s="4" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="M32" s="4" t="s">
         <v>224</v>
@@ -4914,26 +4908,26 @@
       </c>
       <c r="O32" s="4"/>
       <c r="P32" s="4"/>
-      <c r="Q32" s="19"/>
+      <c r="Q32" s="16"/>
       <c r="R32" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="S32" s="4"/>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A33" s="17"/>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A33" s="14"/>
       <c r="B33" s="4" t="s">
-        <v>323</v>
-      </c>
-      <c r="H33" s="18"/>
+        <v>322</v>
+      </c>
+      <c r="H33" s="15"/>
       <c r="J33" s="4" t="s">
         <v>26</v>
       </c>
       <c r="K33" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="L33" s="4" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="M33" s="4" t="s">
         <v>224</v>
@@ -4943,28 +4937,28 @@
       </c>
       <c r="O33" s="4"/>
       <c r="P33" s="4"/>
-      <c r="Q33" s="19"/>
+      <c r="Q33" s="16"/>
       <c r="R33" s="4" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="S33" s="4"/>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A34" s="17" t="s">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A34" s="14" t="s">
         <v>311</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>339</v>
-      </c>
-      <c r="H34" s="18"/>
+        <v>338</v>
+      </c>
+      <c r="H34" s="15"/>
       <c r="J34" s="4" t="s">
         <v>21</v>
       </c>
       <c r="K34" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="L34" s="4" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="M34" s="4" t="s">
         <v>224</v>
@@ -4974,28 +4968,28 @@
       </c>
       <c r="O34" s="4"/>
       <c r="P34" s="4"/>
-      <c r="Q34" s="19"/>
+      <c r="Q34" s="16"/>
       <c r="R34" s="4" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="S34" s="4"/>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A35" s="17" t="s">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A35" s="14" t="s">
         <v>312</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>340</v>
-      </c>
-      <c r="H35" s="18"/>
+        <v>339</v>
+      </c>
+      <c r="H35" s="15"/>
       <c r="J35" s="4" t="s">
         <v>36</v>
       </c>
       <c r="K35" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="L35" s="4" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="M35" s="4" t="s">
         <v>224</v>
@@ -5005,28 +4999,28 @@
       </c>
       <c r="O35" s="4"/>
       <c r="P35" s="4"/>
-      <c r="Q35" s="19"/>
+      <c r="Q35" s="16"/>
       <c r="R35" s="4" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="S35" s="4"/>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A36" s="17" t="s">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A36" s="14" t="s">
         <v>313</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>294</v>
       </c>
-      <c r="H36" s="18"/>
+      <c r="H36" s="15"/>
       <c r="J36" s="4" t="s">
         <v>21</v>
       </c>
       <c r="K36" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="L36" s="4" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="M36" s="4" t="s">
         <v>224</v>
@@ -5036,28 +5030,28 @@
       </c>
       <c r="O36" s="4"/>
       <c r="P36" s="4"/>
-      <c r="Q36" s="19"/>
+      <c r="Q36" s="16"/>
       <c r="R36" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="S36" s="4"/>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A37" s="17" t="s">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A37" s="14" t="s">
         <v>314</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>321</v>
-      </c>
-      <c r="H37" s="18"/>
+        <v>320</v>
+      </c>
+      <c r="H37" s="15"/>
       <c r="J37" s="4" t="s">
         <v>36</v>
       </c>
       <c r="K37" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="L37" s="4" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="M37" s="4" t="s">
         <v>224</v>
@@ -5067,26 +5061,26 @@
       </c>
       <c r="O37" s="4"/>
       <c r="P37" s="4"/>
-      <c r="Q37" s="19"/>
+      <c r="Q37" s="16"/>
       <c r="R37" s="4" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="S37" s="4"/>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A38" s="17"/>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A38" s="14"/>
       <c r="B38" s="4" t="s">
         <v>318</v>
       </c>
-      <c r="H38" s="18"/>
+      <c r="H38" s="15"/>
       <c r="J38" s="4" t="s">
         <v>36</v>
       </c>
       <c r="K38" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="L38" s="4" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="M38" s="4" t="s">
         <v>224</v>
@@ -5096,26 +5090,26 @@
       </c>
       <c r="O38" s="4"/>
       <c r="P38" s="4"/>
-      <c r="Q38" s="19"/>
+      <c r="Q38" s="16"/>
       <c r="R38" s="4" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="S38" s="4"/>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A39" s="17"/>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A39" s="14"/>
       <c r="B39" s="4" t="s">
-        <v>341</v>
-      </c>
-      <c r="H39" s="18"/>
+        <v>340</v>
+      </c>
+      <c r="H39" s="15"/>
       <c r="J39" s="4" t="s">
         <v>37</v>
       </c>
       <c r="K39" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="L39" s="4" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="M39" s="4" t="s">
         <v>224</v>
@@ -5125,26 +5119,26 @@
       </c>
       <c r="O39" s="4"/>
       <c r="P39" s="4"/>
-      <c r="Q39" s="19"/>
+      <c r="Q39" s="16"/>
       <c r="R39" s="4" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="S39" s="4"/>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A40" s="17"/>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A40" s="14"/>
       <c r="B40" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="H40" s="18"/>
+      <c r="H40" s="15"/>
       <c r="J40" s="4" t="s">
         <v>21</v>
       </c>
       <c r="K40" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="L40" s="4" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="M40" s="4" t="s">
         <v>224</v>
@@ -5154,28 +5148,28 @@
       </c>
       <c r="O40" s="4"/>
       <c r="P40" s="4"/>
-      <c r="Q40" s="19"/>
+      <c r="Q40" s="16"/>
       <c r="R40" s="4" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="S40" s="4"/>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A41" s="17" t="s">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A41" s="14" t="s">
         <v>315</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>321</v>
-      </c>
-      <c r="H41" s="18"/>
+        <v>320</v>
+      </c>
+      <c r="H41" s="15"/>
       <c r="J41" s="4" t="s">
         <v>36</v>
       </c>
       <c r="K41" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="L41" s="4" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="M41" s="4" t="s">
         <v>224</v>
@@ -5185,28 +5179,28 @@
       </c>
       <c r="O41" s="4"/>
       <c r="P41" s="4"/>
-      <c r="Q41" s="19"/>
+      <c r="Q41" s="16"/>
       <c r="R41" s="4" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="S41" s="4"/>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A42" s="17" t="s">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A42" s="14" t="s">
         <v>316</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>324</v>
-      </c>
-      <c r="H42" s="18"/>
+        <v>323</v>
+      </c>
+      <c r="H42" s="15"/>
       <c r="J42" s="4" t="s">
-        <v>320</v>
+        <v>25</v>
       </c>
       <c r="K42" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="L42" s="4" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="M42" s="4" t="s">
         <v>224</v>
@@ -5216,22 +5210,22 @@
       </c>
       <c r="O42" s="4"/>
       <c r="P42" s="4"/>
-      <c r="Q42" s="19"/>
+      <c r="Q42" s="16"/>
       <c r="R42" s="4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="S42" s="4"/>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A43" s="17"/>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A43" s="14"/>
       <c r="B43" s="4"/>
-      <c r="H43" s="18"/>
+      <c r="H43" s="15"/>
       <c r="J43" s="4"/>
       <c r="M43" s="4"/>
       <c r="N43" s="4"/>
       <c r="O43" s="4"/>
       <c r="P43" s="4"/>
-      <c r="Q43" s="19"/>
+      <c r="Q43" s="16"/>
       <c r="R43" s="4"/>
       <c r="S43" s="4"/>
     </row>
@@ -5285,78 +5279,78 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="32.42578125" customWidth="1"/>
+    <col min="1" max="1" width="32.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A2" s="9" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A3" s="9" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A4" s="9" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A5" s="9" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A6" s="9" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A7" s="9" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A8" s="9" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A9" s="9" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A10" s="9" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A11" s="10" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A12" s="10" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="11" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A14" s="10" t="s">
         <v>222</v>
       </c>
     </row>
@@ -5380,409 +5374,407 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="34.85546875" style="8" customWidth="1"/>
-    <col min="3" max="3" width="32.5703125" customWidth="1"/>
-    <col min="8" max="8" width="22.85546875" customWidth="1"/>
+    <col min="1" max="1" width="34.86328125" customWidth="1"/>
+    <col min="3" max="3" width="32.59765625" customWidth="1"/>
+    <col min="8" max="8" width="22.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="29"/>
+      <c r="B2" s="26"/>
       <c r="C2" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A3" s="11" t="s">
         <v>234</v>
       </c>
-      <c r="B3" s="29"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
+      <c r="B3" s="26"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A4" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="B4" s="30"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
+      <c r="B4" s="27"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="30"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
+      <c r="B5" s="27"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A6" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="B6" s="30"/>
+      <c r="B6" s="27"/>
       <c r="C6" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A7" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="B7" s="27"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A8" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="B8" s="27"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A9" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="B9" s="27"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A10" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="B10" s="27"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A11" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="28"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A12" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" s="28"/>
+      <c r="C12" s="24" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A13" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="B13" s="28"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A14" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="B14" s="29"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A15" s="5" t="s">
         <v>378</v>
       </c>
-      <c r="B7" s="30"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
-        <v>374</v>
-      </c>
-      <c r="B8" s="30"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
-        <v>375</v>
-      </c>
-      <c r="B9" s="30"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
-        <v>228</v>
-      </c>
-      <c r="B10" s="30"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="31"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="B12" s="31"/>
-      <c r="C12" s="27" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="12" t="s">
+      <c r="B15" s="29"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A16" s="5" t="s">
+        <v>380</v>
+      </c>
+      <c r="B16" s="29"/>
+      <c r="C16" s="22" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A17" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="B17" s="29"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A18" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="B18" s="29"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A19" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="B19" s="29"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A20" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B20" s="30"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A21" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="B21" s="30"/>
+      <c r="C21" s="22" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A22" s="5" t="s">
         <v>376</v>
       </c>
-      <c r="B13" s="31"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="12" t="s">
-        <v>268</v>
-      </c>
-      <c r="B14" s="32"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="12" t="s">
-        <v>379</v>
-      </c>
-      <c r="B15" s="32"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="12" t="s">
-        <v>381</v>
-      </c>
-      <c r="B16" s="32"/>
-      <c r="C16" s="25" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="12" t="s">
-        <v>269</v>
-      </c>
-      <c r="B17" s="32"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="12" t="s">
-        <v>380</v>
-      </c>
-      <c r="B18" s="32"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="12" t="s">
-        <v>270</v>
-      </c>
-      <c r="B19" s="32"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="B20" s="33"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="12" t="s">
-        <v>184</v>
-      </c>
-      <c r="B21" s="33"/>
-      <c r="C21" s="25" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="12" t="s">
-        <v>377</v>
-      </c>
-      <c r="B22" s="33"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="12" t="s">
+      <c r="B22" s="30"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A23" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B23" s="33"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="12" t="s">
+      <c r="B23" s="30"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A24" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="B24" s="33"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="12" t="s">
+      <c r="B24" s="30"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A25" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="B25" s="34"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="12" t="s">
+      <c r="B25" s="31"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A26" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="B26" s="34"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="12" t="s">
+      <c r="B26" s="31"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A27" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="B27" s="34"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="12" t="s">
+      <c r="B27" s="31"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A28" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="B28" s="34"/>
-      <c r="H28" s="28"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="12" t="s">
+      <c r="B28" s="31"/>
+      <c r="H28" s="25"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A29" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="B29" s="34"/>
-      <c r="H29" s="28"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="12" t="s">
+      <c r="B29" s="31"/>
+      <c r="H29" s="25"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A30" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="B30" s="34"/>
-      <c r="C30" s="25" t="s">
+      <c r="B30" s="31"/>
+      <c r="C30" s="22" t="s">
         <v>217</v>
       </c>
-      <c r="H30" s="28"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="12" t="s">
+      <c r="H30" s="25"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A31" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="B31" s="34"/>
-      <c r="H31" s="28"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="12" t="s">
+      <c r="B31" s="31"/>
+      <c r="H31" s="25"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A32" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="B32" s="34"/>
-      <c r="H32" s="28"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="12" t="s">
+      <c r="B32" s="31"/>
+      <c r="H32" s="25"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A33" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="B33" s="34"/>
-      <c r="H33" s="28"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="12" t="s">
+      <c r="B33" s="31"/>
+      <c r="H33" s="25"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A34" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="B34" s="34"/>
-      <c r="H34" s="28"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="12" t="s">
+      <c r="B34" s="31"/>
+      <c r="H34" s="25"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A35" s="5" t="s">
+        <v>420</v>
+      </c>
+      <c r="B35" s="31"/>
+      <c r="H35" s="25"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A36" s="5" t="s">
         <v>421</v>
       </c>
-      <c r="B35" s="34"/>
-      <c r="H35" s="28"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="12" t="s">
-        <v>422</v>
-      </c>
-      <c r="B36" s="34"/>
-      <c r="H36" s="28"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="12" t="s">
+      <c r="B36" s="31"/>
+      <c r="H36" s="25"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A37" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B37" s="34"/>
-      <c r="H37" s="28"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="12" t="s">
+      <c r="B37" s="31"/>
+      <c r="H37" s="25"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A38" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="B38" s="34"/>
-      <c r="H38" s="28"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="16" t="s">
+      <c r="B38" s="31"/>
+      <c r="H38" s="25"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A39" s="11" t="s">
         <v>263</v>
       </c>
-      <c r="B39" s="35"/>
-      <c r="C39" s="25" t="s">
-        <v>367</v>
-      </c>
-      <c r="D39" s="40"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="16" t="s">
+      <c r="B39" s="32"/>
+      <c r="C39" s="22" t="s">
+        <v>366</v>
+      </c>
+      <c r="D39" s="36"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A40" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="B40" s="38"/>
-      <c r="D40" s="40"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="16" t="s">
+      <c r="B40" s="34"/>
+      <c r="D40" s="36"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A41" s="11" t="s">
         <v>262</v>
       </c>
-      <c r="B41" s="38"/>
+      <c r="B41" s="34"/>
       <c r="C41" t="s">
         <v>145</v>
       </c>
-      <c r="D41" s="40"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="16" t="s">
+      <c r="D41" s="36"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A42" s="11" t="s">
         <v>261</v>
       </c>
-      <c r="B42" s="38"/>
-      <c r="C42" s="37"/>
-      <c r="D42" s="40"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="16" t="s">
+      <c r="B42" s="34"/>
+      <c r="D42" s="36"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A43" s="11" t="s">
+        <v>368</v>
+      </c>
+      <c r="B43" s="21"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A44" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B44" s="21"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A45" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="B45" s="21"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A46" s="11" t="s">
         <v>369</v>
       </c>
-      <c r="B43" s="24"/>
-      <c r="C43" s="37"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="B44" s="24"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="16" t="s">
-        <v>218</v>
-      </c>
-      <c r="B45" s="24"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="16" t="s">
+      <c r="B46" s="21"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A47" s="11" t="s">
         <v>370</v>
       </c>
-      <c r="B46" s="24"/>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="16" t="s">
-        <v>371</v>
-      </c>
-      <c r="B47" s="24"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="12" t="s">
+      <c r="B47" s="21"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A48" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B48" s="24"/>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="12" t="s">
+      <c r="B48" s="21"/>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A49" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B49" s="24"/>
-      <c r="C49" s="25" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="12" t="s">
+      <c r="B49" s="21"/>
+      <c r="C49" s="22" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A50" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="B50" s="24"/>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="12" t="s">
+      <c r="B50" s="21"/>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A51" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="B51" s="24"/>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="16" t="s">
+      <c r="B51" s="21"/>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A52" s="11" t="s">
         <v>200</v>
       </c>
-      <c r="B52" s="24"/>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="12" t="s">
+      <c r="B52" s="21"/>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A53" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="B53" s="32"/>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="12" t="s">
+      <c r="B53" s="29"/>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A54" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="B54" s="32"/>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="16" t="s">
+      <c r="B54" s="29"/>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A55" s="11" t="s">
         <v>276</v>
       </c>
-      <c r="B55" s="32"/>
+      <c r="B55" s="29"/>
       <c r="C55" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="16" t="s">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A56" s="11" t="s">
         <v>222</v>
       </c>
-      <c r="B56" s="32"/>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="16" t="s">
-        <v>426</v>
-      </c>
-      <c r="B57" s="39"/>
-      <c r="C57" s="25" t="s">
+      <c r="B56" s="29"/>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A57" s="11" t="s">
+        <v>425</v>
+      </c>
+      <c r="B57" s="35"/>
+      <c r="C57" s="22" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="461" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A461" s="12"/>
-    </row>
-    <row r="462" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A462" s="12"/>
+    <row r="461" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A461" s="5"/>
+    </row>
+    <row r="462" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A462" s="5"/>
     </row>
   </sheetData>
   <dataValidations disablePrompts="1" count="1">
@@ -5808,235 +5800,235 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="29.5703125" style="8" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.59765625" customWidth="1"/>
+    <col min="3" max="3" width="13.1328125" customWidth="1"/>
+    <col min="4" max="4" width="15.73046875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.73046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A2" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="B2" s="34"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+      <c r="B2" s="31"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A3" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="B3" s="31"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A4" s="5" t="s">
         <v>391</v>
       </c>
-      <c r="B3" s="34"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
-        <v>392</v>
-      </c>
-      <c r="B4" s="34"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
+      <c r="B4" s="31"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A5" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="B5" s="34"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
+      <c r="B5" s="31"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A6" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="B6" s="34"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
-        <v>390</v>
-      </c>
-      <c r="B7" s="34"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
+      <c r="B6" s="31"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A7" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="B7" s="31"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A8" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="B8" s="34"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
+      <c r="B8" s="31"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A9" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="B9" s="34"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
+      <c r="B9" s="31"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A10" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="B10" s="34"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="16" t="s">
+      <c r="B10" s="31"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A11" s="11" t="s">
         <v>248</v>
       </c>
-      <c r="B11" s="34"/>
-      <c r="C11" s="25" t="s">
+      <c r="B11" s="31"/>
+      <c r="C11" s="22" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="16" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A12" s="11" t="s">
+        <v>387</v>
+      </c>
+      <c r="B12" s="31"/>
+      <c r="C12" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A13" s="11" t="s">
+        <v>386</v>
+      </c>
+      <c r="B13" s="31"/>
+      <c r="C13" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A14" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="B14" s="31"/>
+      <c r="C14" s="38" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A15" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="B15" s="31"/>
+      <c r="C15" s="38"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A16" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="B16" s="31"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A17" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="B17" s="31"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A18" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="B18" s="31"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="36"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A19" s="11" t="s">
         <v>388</v>
       </c>
-      <c r="B12" s="34"/>
-      <c r="C12" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="16" t="s">
-        <v>387</v>
-      </c>
-      <c r="B13" s="34"/>
-      <c r="C13" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="16" t="s">
-        <v>251</v>
-      </c>
-      <c r="B14" s="34"/>
-      <c r="C14" s="42" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="16" t="s">
-        <v>243</v>
-      </c>
-      <c r="B15" s="34"/>
-      <c r="C15" s="42"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="16" t="s">
-        <v>250</v>
-      </c>
-      <c r="B16" s="34"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="16" t="s">
-        <v>254</v>
-      </c>
-      <c r="B17" s="34"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="16" t="s">
-        <v>242</v>
-      </c>
-      <c r="B18" s="34"/>
-      <c r="E18" s="40"/>
-      <c r="F18" s="41"/>
-      <c r="G18" s="40"/>
-      <c r="H18" s="40"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="16" t="s">
-        <v>389</v>
-      </c>
-      <c r="B19" s="34"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="16" t="s">
+      <c r="B19" s="31"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A20" s="11" t="s">
         <v>253</v>
       </c>
-      <c r="B20" s="34"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="16" t="s">
+      <c r="B20" s="31"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A21" s="11" t="s">
         <v>257</v>
       </c>
-      <c r="B21" s="34"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="16" t="s">
+      <c r="B21" s="31"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A22" s="11" t="s">
         <v>244</v>
       </c>
-      <c r="B22" s="34"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="16" t="s">
+      <c r="B22" s="31"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A23" s="11" t="s">
         <v>258</v>
       </c>
-      <c r="B23" s="38"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="16" t="s">
+      <c r="B23" s="34"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A24" s="11" t="s">
         <v>259</v>
       </c>
-      <c r="B24" s="38"/>
-      <c r="C24" s="25" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="16" t="s">
+      <c r="B24" s="34"/>
+      <c r="C24" s="22" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A25" s="11" t="s">
         <v>260</v>
       </c>
-      <c r="B25" s="38"/>
+      <c r="B25" s="34"/>
       <c r="C25" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="16" t="s">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A26" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="B26" s="34"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A27" s="11" t="s">
         <v>372</v>
       </c>
-      <c r="B26" s="38"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="16" t="s">
-        <v>373</v>
-      </c>
-      <c r="B27" s="38"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="16" t="s">
+      <c r="B27" s="34"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A28" s="11" t="s">
         <v>224</v>
       </c>
-      <c r="B28" s="30"/>
+      <c r="B28" s="27"/>
       <c r="C28" t="s">
         <v>220</v>
       </c>
-      <c r="E28" s="40"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="16" t="s">
+      <c r="E28" s="36"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A29" s="11" t="s">
         <v>225</v>
       </c>
-      <c r="B29" s="30"/>
+      <c r="B29" s="27"/>
       <c r="C29" t="s">
         <v>223</v>
       </c>
-      <c r="E29" s="40"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="16" t="s">
+      <c r="E29" s="36"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A30" s="11" t="s">
         <v>229</v>
       </c>
-      <c r="B30" s="30"/>
-      <c r="C30" s="25" t="s">
-        <v>365</v>
-      </c>
-      <c r="E30" s="40"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="16" t="s">
+      <c r="B30" s="27"/>
+      <c r="C30" s="22" t="s">
+        <v>364</v>
+      </c>
+      <c r="E30" s="36"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A31" s="11" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="310" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A310" s="12"/>
+    <row r="310" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A310" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6058,337 +6050,337 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" customWidth="1"/>
+    <col min="1" max="1" width="18.73046875" customWidth="1"/>
+    <col min="3" max="3" width="16.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B2" s="27"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="30"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B3" s="27"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="30"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B4" s="27"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="30"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B5" s="27"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="30"/>
+      <c r="B6" s="27"/>
       <c r="C6" t="s">
         <v>223</v>
       </c>
-      <c r="D6" s="40"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D6" s="36"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>271</v>
       </c>
-      <c r="B7" s="30"/>
-      <c r="C7" s="25" t="s">
-        <v>365</v>
-      </c>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B7" s="27"/>
+      <c r="C7" s="22" t="s">
+        <v>364</v>
+      </c>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="36"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>272</v>
       </c>
-      <c r="B8" s="30"/>
+      <c r="B8" s="27"/>
       <c r="C8" t="s">
-        <v>366</v>
-      </c>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="40"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+        <v>365</v>
+      </c>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>273</v>
       </c>
-      <c r="B9" s="30"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="40"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B9" s="27"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="36"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>222</v>
       </c>
-      <c r="B10" s="30"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="40"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B10" s="27"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="36"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
+        <v>395</v>
+      </c>
+      <c r="B11" s="28"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
         <v>396</v>
       </c>
-      <c r="B11" s="31"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>397</v>
-      </c>
-      <c r="B12" s="31"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B12" s="28"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>230</v>
       </c>
-      <c r="B13" s="31"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B13" s="28"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>235</v>
       </c>
-      <c r="B14" s="31"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B14" s="28"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>236</v>
       </c>
-      <c r="B15" s="31"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B15" s="28"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>231</v>
       </c>
-      <c r="B16" s="31"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B16" s="28"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>232</v>
       </c>
-      <c r="B17" s="31"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B17" s="28"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>237</v>
       </c>
-      <c r="B18" s="31"/>
-      <c r="C18" s="27" t="s">
+      <c r="B18" s="28"/>
+      <c r="C18" s="24" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>238</v>
       </c>
-      <c r="B19" s="31"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B19" s="28"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>239</v>
       </c>
-      <c r="B20" s="31"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B20" s="28"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>240</v>
       </c>
-      <c r="B21" s="31"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B21" s="28"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>241</v>
       </c>
-      <c r="B22" s="31"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B22" s="28"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
+        <v>392</v>
+      </c>
+      <c r="B23" s="28"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
         <v>393</v>
       </c>
-      <c r="B23" s="31"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="B24" s="28"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
+        <v>392</v>
+      </c>
+      <c r="B25" s="28"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
         <v>394</v>
       </c>
-      <c r="B24" s="31"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>393</v>
-      </c>
-      <c r="B25" s="31"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>395</v>
-      </c>
-      <c r="B26" s="31"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B26" s="28"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
+        <v>397</v>
+      </c>
+      <c r="B27" s="28"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A28" t="s">
         <v>398</v>
       </c>
-      <c r="B27" s="31"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="B28" s="28"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A29" t="s">
         <v>399</v>
       </c>
-      <c r="B28" s="31"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="B29" s="28"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A30" t="s">
         <v>400</v>
       </c>
-      <c r="B29" s="31"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>401</v>
-      </c>
-      <c r="B30" s="31"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B30" s="28"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
-        <v>403</v>
-      </c>
-      <c r="B31" s="31"/>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+        <v>402</v>
+      </c>
+      <c r="B31" s="28"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A32" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B32" s="34"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B32" s="31"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A33" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="B33" s="34"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B33" s="31"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A34" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="B34" s="34"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B34" s="31"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A35" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="B35" s="34"/>
-      <c r="C35" s="25" t="s">
+      <c r="B35" s="31"/>
+      <c r="C35" s="22" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A36" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="B36" s="34"/>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="13" t="s">
+      <c r="B36" s="31"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A37" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="B37" s="34"/>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="13" t="s">
+      <c r="B37" s="31"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A38" s="11" t="s">
+        <v>381</v>
+      </c>
+      <c r="B38" s="30"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A39" s="11" t="s">
         <v>382</v>
       </c>
-      <c r="B38" s="33"/>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="13" t="s">
+      <c r="B39" s="30"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A40" s="11" t="s">
         <v>383</v>
       </c>
-      <c r="B39" s="33"/>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="13" t="s">
+      <c r="B40" s="30"/>
+      <c r="C40" s="22" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A41" s="11" t="s">
         <v>384</v>
       </c>
-      <c r="B40" s="33"/>
-      <c r="C40" s="25" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="13" t="s">
+      <c r="B41" s="30"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A42" s="11" t="s">
         <v>385</v>
       </c>
-      <c r="B41" s="33"/>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="13" t="s">
-        <v>386</v>
-      </c>
-      <c r="B42" s="33"/>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="13" t="s">
+      <c r="B42" s="30"/>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A43" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="B43" s="30"/>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="13" t="s">
-        <v>429</v>
-      </c>
-      <c r="B44" s="30"/>
-      <c r="C44" s="36" t="s">
+      <c r="B43" s="27"/>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A44" s="11" t="s">
+        <v>428</v>
+      </c>
+      <c r="B44" s="27"/>
+      <c r="C44" s="33" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="13" t="s">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A45" s="11" t="s">
         <v>227</v>
       </c>
-      <c r="B45" s="30"/>
+      <c r="B45" s="27"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6409,98 +6401,98 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" customWidth="1"/>
+    <col min="1" max="1" width="18.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A2" s="6" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A3" s="5" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A4" s="5" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A5" s="5" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A6" s="5" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A7" s="5" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A8" s="6" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A9" s="23" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A10" s="5" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="26" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A11" s="23" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="26" t="s">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A12" s="6" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A13" s="23" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="26" t="s">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A14" s="6" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A15" s="23" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="26" t="s">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A16" s="6" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A17" s="5" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="13" t="s">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A18" s="11" t="s">
         <v>222</v>
       </c>
     </row>
@@ -6524,54 +6516,54 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" customWidth="1"/>
+    <col min="1" max="1" width="16.265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
         <v>424</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>425</v>
       </c>
     </row>
   </sheetData>
@@ -6587,21 +6579,21 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:H74"/>
+  <dimension ref="A1:H73"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:XFD14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" customHeight="1" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" customHeight="1" outlineLevelCol="1" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="27.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="43.140625" customWidth="1"/>
-    <col min="4" max="7" width="9.140625" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="8" width="8.7109375" collapsed="1"/>
+    <col min="2" max="2" width="27.73046875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43.1328125" customWidth="1"/>
+    <col min="4" max="7" width="9.1328125" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="8.73046875" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>141</v>
       </c>
@@ -6624,7 +6616,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="7" t="s">
         <v>64</v>
       </c>
@@ -6639,7 +6631,7 @@
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
     </row>
-    <row r="3" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>69</v>
       </c>
@@ -6654,7 +6646,7 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>71</v>
       </c>
@@ -6669,7 +6661,7 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>66</v>
       </c>
@@ -6686,7 +6678,7 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>68</v>
       </c>
@@ -6703,7 +6695,7 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>63</v>
       </c>
@@ -6718,7 +6710,7 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
         <v>21</v>
@@ -6733,7 +6725,7 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
         <v>20</v>
@@ -6748,7 +6740,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
         <v>22</v>
@@ -6761,7 +6753,7 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
         <v>23</v>
@@ -6780,7 +6772,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
         <v>73</v>
       </c>
@@ -6795,7 +6787,7 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
         <v>75</v>
       </c>
@@ -6810,129 +6802,137 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
+      <c r="B14" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="C14" s="1" t="s">
-        <v>320</v>
+        <v>24</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-    </row>
-    <row r="15" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G14" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
-      <c r="G15" s="1" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="B16" s="1" t="s">
-        <v>25</v>
+        <v>78</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>25</v>
+        <v>78</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>79</v>
-      </c>
+    <row r="19" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
-        <v>80</v>
+        <v>26</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>80</v>
+        <v>26</v>
       </c>
       <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
+      <c r="E19" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>185</v>
+      </c>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
+    <row r="20" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="B20" s="1" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="D20" s="1"/>
-      <c r="E20" s="1" t="s">
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="F21" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="G20" s="1"/>
-    </row>
-    <row r="21" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-    </row>
-    <row r="22" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G21" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="1"/>
       <c r="B22" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1" t="s">
@@ -6945,163 +6945,159 @@
         <v>185</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="1"/>
       <c r="B23" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D23" s="1"/>
-      <c r="E23" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="B24" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
     </row>
-    <row r="25" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>31</v>
+        <v>86</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>31</v>
+        <v>86</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
     </row>
-    <row r="26" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>85</v>
-      </c>
+    <row r="26" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A26" s="1"/>
       <c r="B26" s="1" t="s">
-        <v>86</v>
+        <v>30</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>86</v>
+        <v>30</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
     </row>
-    <row r="27" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="1"/>
       <c r="B27" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-    </row>
-    <row r="28" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
+      <c r="G27" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A28" s="1" t="s">
+        <v>88</v>
+      </c>
       <c r="B28" s="1" t="s">
-        <v>32</v>
+        <v>89</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>32</v>
+        <v>89</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
-      <c r="G28" s="1" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>88</v>
-      </c>
+      <c r="G28" s="1"/>
+    </row>
+    <row r="29" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A29" s="1"/>
       <c r="B29" s="1" t="s">
-        <v>89</v>
+        <v>33</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>89</v>
+        <v>33</v>
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-    </row>
-    <row r="30" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G29" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A30" s="1"/>
       <c r="B30" s="1" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="1"/>
+      <c r="F30" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="G30" s="1"/>
+    </row>
+    <row r="31" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A31" s="1" t="s">
+        <v>90</v>
+      </c>
       <c r="B31" s="1" t="s">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>34</v>
+        <v>91</v>
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
-      <c r="F31" s="1" t="s">
-        <v>186</v>
-      </c>
+      <c r="F31" s="1"/>
       <c r="G31" s="1"/>
     </row>
-    <row r="32" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>90</v>
-      </c>
+    <row r="32" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A32" s="1"/>
       <c r="B32" s="1" t="s">
-        <v>91</v>
+        <v>35</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>91</v>
+        <v>35</v>
       </c>
       <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
+      <c r="E32" s="1" t="s">
+        <v>185</v>
+      </c>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
     </row>
-    <row r="33" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A33" s="1"/>
-      <c r="B33" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>35</v>
+      <c r="B33" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="D33" s="1"/>
       <c r="E33" s="1" t="s">
@@ -7110,13 +7106,13 @@
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
     </row>
-    <row r="34" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A34" s="1"/>
       <c r="B34" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="1" t="s">
@@ -7125,13 +7121,13 @@
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
     </row>
-    <row r="35" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A35" s="1"/>
       <c r="B35" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D35" s="1"/>
       <c r="E35" s="1" t="s">
@@ -7140,596 +7136,581 @@
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
     </row>
-    <row r="36" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="1"/>
-      <c r="B36" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>36</v>
+    <row r="36" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A36" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>93</v>
       </c>
       <c r="D36" s="1"/>
-      <c r="E36" s="1" t="s">
-        <v>185</v>
-      </c>
+      <c r="E36" s="1"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
     </row>
-    <row r="37" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>92</v>
-      </c>
+    <row r="37" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A37" s="1"/>
       <c r="B37" s="1" t="s">
-        <v>93</v>
+        <v>39</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>93</v>
+        <v>39</v>
       </c>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-    </row>
-    <row r="38" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="1"/>
+      <c r="G37" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A38" s="1" t="s">
+        <v>95</v>
+      </c>
       <c r="B38" s="1" t="s">
-        <v>39</v>
+        <v>96</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D38" s="1"/>
+        <v>96</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>186</v>
+      </c>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
-      <c r="G38" s="1" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G38" s="1"/>
+    </row>
+    <row r="39" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A39" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>96</v>
+        <v>40</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>186</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
     </row>
-    <row r="40" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A40" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>40</v>
+        <v>98</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>40</v>
+        <v>98</v>
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
     </row>
-    <row r="41" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A41" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D41" s="1"/>
+        <v>100</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>186</v>
+      </c>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
     </row>
-    <row r="42" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
-        <v>99</v>
-      </c>
+    <row r="42" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A42" s="1"/>
       <c r="B42" s="1" t="s">
-        <v>100</v>
+        <v>51</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>186</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="D42" s="1"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
     </row>
-    <row r="43" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A43" s="1"/>
       <c r="B43" s="1" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
+      <c r="E43" s="1" t="s">
+        <v>185</v>
+      </c>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
     </row>
-    <row r="44" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A44" s="1"/>
       <c r="B44" s="1" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="D44" s="1"/>
-      <c r="E44" s="1" t="s">
-        <v>185</v>
-      </c>
+      <c r="E44" s="1"/>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
     </row>
-    <row r="45" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="1"/>
+    <row r="45" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A45" s="1" t="s">
+        <v>105</v>
+      </c>
       <c r="B45" s="1" t="s">
-        <v>51</v>
+        <v>106</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D45" s="1"/>
+        <v>106</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>186</v>
+      </c>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
     </row>
-    <row r="46" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A46" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>186</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="D46" s="1"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
     </row>
-    <row r="47" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
-        <v>103</v>
-      </c>
+    <row r="47" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A47" s="1"/>
       <c r="B47" s="1" t="s">
-        <v>104</v>
+        <v>291</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>104</v>
+        <v>290</v>
       </c>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
     </row>
-    <row r="48" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="1"/>
+    <row r="48" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A48" s="1" t="s">
+        <v>107</v>
+      </c>
       <c r="B48" s="1" t="s">
-        <v>291</v>
+        <v>108</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>290</v>
+        <v>108</v>
       </c>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
     </row>
-    <row r="49" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A49" s="1" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
     </row>
-    <row r="50" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>102</v>
+    <row r="50" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A50" s="1"/>
+      <c r="B50" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
     </row>
-    <row r="51" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="1"/>
-      <c r="B51" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>41</v>
+    <row r="51" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A51" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
     </row>
-    <row r="52" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
-        <v>109</v>
-      </c>
+    <row r="52" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A52" s="1"/>
       <c r="B52" s="1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
-      <c r="F52" s="1"/>
-      <c r="G52" s="1"/>
-    </row>
-    <row r="53" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="1"/>
+      <c r="F52" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A53" s="1" t="s">
+        <v>110</v>
+      </c>
       <c r="B53" s="1" t="s">
-        <v>44</v>
+        <v>111</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>44</v>
+        <v>111</v>
       </c>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
-      <c r="F53" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+    </row>
+    <row r="54" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A54" s="1" t="s">
-        <v>110</v>
+        <v>181</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>111</v>
+        <v>180</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>111</v>
+        <v>180</v>
       </c>
       <c r="D54" s="1"/>
-      <c r="E54" s="1"/>
-      <c r="F54" s="1"/>
+      <c r="E54" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>185</v>
+      </c>
       <c r="G54" s="1"/>
     </row>
-    <row r="55" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A55" s="1" t="s">
-        <v>181</v>
+        <v>112</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>180</v>
+        <v>113</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>180</v>
+        <v>113</v>
       </c>
       <c r="D55" s="1"/>
-      <c r="E55" s="1" t="s">
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+    </row>
+    <row r="56" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A56" s="1"/>
+      <c r="B56" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="F55" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="G55" s="1"/>
-    </row>
-    <row r="56" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="D56" s="1"/>
-      <c r="E56" s="1"/>
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
     </row>
-    <row r="57" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="1"/>
+    <row r="57" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A57" s="1" t="s">
+        <v>114</v>
+      </c>
       <c r="B57" s="1" t="s">
-        <v>45</v>
+        <v>115</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>45</v>
+        <v>115</v>
       </c>
       <c r="D57" s="1"/>
-      <c r="E57" s="1" t="s">
-        <v>185</v>
-      </c>
+      <c r="E57" s="1"/>
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
     </row>
-    <row r="58" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
-        <v>114</v>
-      </c>
+    <row r="58" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A58" s="1"/>
       <c r="B58" s="1" t="s">
-        <v>115</v>
+        <v>46</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>115</v>
+        <v>46</v>
       </c>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
     </row>
-    <row r="59" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A59" s="1"/>
       <c r="B59" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
     </row>
-    <row r="60" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="1"/>
+    <row r="60" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A60" s="1" t="s">
+        <v>118</v>
+      </c>
       <c r="B60" s="1" t="s">
-        <v>47</v>
+        <v>119</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>47</v>
+        <v>119</v>
       </c>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
       <c r="G60" s="1"/>
     </row>
-    <row r="61" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A61" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
     </row>
-    <row r="62" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A62" s="1" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
     </row>
-    <row r="63" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A63" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
     </row>
-    <row r="64" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A64" s="1" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
     </row>
-    <row r="65" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A65" s="1" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
     </row>
-    <row r="66" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A66" s="1" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
     </row>
-    <row r="67" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A67" s="1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="D67" s="1"/>
+        <v>129</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>186</v>
+      </c>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
     </row>
-    <row r="68" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A68" s="1" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>186</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="D68" s="1"/>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
       <c r="G68" s="1"/>
     </row>
-    <row r="69" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A69" s="1" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
       <c r="G69" s="1"/>
     </row>
-    <row r="70" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A70" s="1" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>134</v>
+        <v>48</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>134</v>
+        <v>48</v>
       </c>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
-      <c r="F70" s="1"/>
-      <c r="G70" s="1"/>
-    </row>
-    <row r="71" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D71" s="1"/>
-      <c r="E71" s="1"/>
-      <c r="F71" s="1" t="s">
+      <c r="F70" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="G71" s="1" t="s">
+      <c r="G70" s="1" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="72" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A71" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D71" s="3"/>
+      <c r="E71" s="3"/>
+      <c r="F71" s="3"/>
+      <c r="G71" s="3"/>
+    </row>
+    <row r="72" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A72" s="3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D72" s="3"/>
       <c r="E72" s="3"/>
       <c r="F72" s="3"/>
       <c r="G72" s="3"/>
     </row>
-    <row r="73" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A73" s="3" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D73" s="3"/>
       <c r="E73" s="3"/>
       <c r="F73" s="3"/>
       <c r="G73" s="3"/>
-    </row>
-    <row r="74" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="B74" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="C74" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="D74" s="3"/>
-      <c r="E74" s="3"/>
-      <c r="F74" s="3"/>
-      <c r="G74" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/images/MMG Import Template.xlsx
+++ b/src/images/MMG Import Template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\idaen\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Big Pixel\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E708883B-3F32-4570-9E0A-04500A47235B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{098DDFD4-7013-4EF0-8760-8B2347C969E9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="900" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28800" yWindow="450" windowWidth="28800" windowHeight="23550" tabRatio="900" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Rem" sheetId="6" state="hidden" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="388">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="388">
   <si>
     <t>Product SKU</t>
   </si>
@@ -971,9 +971,6 @@
     <t>Integrated</t>
   </si>
   <si>
-    <t>1 Hp/1 KW</t>
-  </si>
-  <si>
     <t>Manifolds</t>
   </si>
   <si>
@@ -1209,6 +1206,9 @@
   </si>
   <si>
     <t>Reserve / ERM / ESM</t>
+  </si>
+  <si>
+    <t>Ceiling / Floor Service / Headwall</t>
   </si>
 </sst>
 </file>
@@ -1940,7 +1940,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="42" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2013,6 +2013,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2060,16 +2061,6 @@
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="49">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -2426,6 +2417,16 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -3191,10 +3192,10 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{54266739-020C-4EDF-A818-5ADEB9B7FBCB}" name="Table5" displayName="Table5" ref="A1:A15" totalsRowShown="0" dataDxfId="24" tableBorderDxfId="23">
-  <autoFilter ref="A1:A15" xr:uid="{3E6A76CE-8A86-4E8B-A712-3C29B1CEC914}"/>
-  <sortState ref="A2:A12">
-    <sortCondition ref="A1:A12"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{54266739-020C-4EDF-A818-5ADEB9B7FBCB}" name="Table5" displayName="Table5" ref="A1:A16" totalsRowShown="0" dataDxfId="24" tableBorderDxfId="23">
+  <autoFilter ref="A1:A16" xr:uid="{3E6A76CE-8A86-4E8B-A712-3C29B1CEC914}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A13">
+    <sortCondition ref="A1:A13"/>
   </sortState>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{C2EB49F3-5A3F-4BCA-BF0B-DB008DC69642}" name="EquipmentType" dataDxfId="22"/>
@@ -3216,7 +3217,7 @@
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{BF92F578-DC15-4EAB-AD47-DFF6EDB54FF0}" name="Table7" displayName="Table7" ref="A1:A31" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16" tableBorderDxfId="15">
   <autoFilter ref="A1:A31" xr:uid="{55BF891C-A531-4897-8C84-0C08CE2B3BD1}"/>
-  <sortState ref="A2:A19">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A19">
     <sortCondition ref="A1:A19"/>
   </sortState>
   <tableColumns count="1">
@@ -3237,38 +3238,38 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{FF388D58-8F02-44AD-94E6-13244A419C1B}" name="Table8" displayName="Table8" ref="A1:A18" totalsRowShown="0" dataDxfId="13" tableBorderDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{FF388D58-8F02-44AD-94E6-13244A419C1B}" name="Table8" displayName="Table8" ref="A1:A18" totalsRowShown="0" dataDxfId="12" tableBorderDxfId="11">
   <autoFilter ref="A1:A18" xr:uid="{DF52C017-6472-4472-8926-6BB1648F619C}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{18CA4413-D755-473B-8724-56DAECCC3782}" name="Power" dataDxfId="11"/>
+    <tableColumn id="1" xr3:uid="{18CA4413-D755-473B-8724-56DAECCC3782}" name="Power" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{EEF1E301-4F28-4AE9-8C1E-432BE54F52BE}" name="Table9" displayName="Table9" ref="A1:A10" totalsRowShown="0" dataDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{EEF1E301-4F28-4AE9-8C1E-432BE54F52BE}" name="Table9" displayName="Table9" ref="A1:A10" totalsRowShown="0" dataDxfId="9">
   <autoFilter ref="A1:A10" xr:uid="{83112DCF-C8CE-44C9-A6B9-76E2F1FCA299}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{525C3C99-57B8-4666-9E66-F34631144364}" name="Standard" dataDxfId="9"/>
+    <tableColumn id="1" xr3:uid="{525C3C99-57B8-4666-9E66-F34631144364}" name="Standard" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="A1:F72" totalsRowShown="0" dataDxfId="8" tableBorderDxfId="7" dataCellStyle="Normal_tblMfgName_Generic Part Number and Serial Number Schema 7-10-10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="A1:F72" totalsRowShown="0" dataDxfId="7" tableBorderDxfId="6" dataCellStyle="Normal_tblMfgName_Generic Part Number and Serial Number Schema 7-10-10">
   <autoFilter ref="A1:F72" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
-  <sortState ref="A2:F72">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F72">
     <sortCondition ref="B1:B72"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="3" xr3:uid="{1FFC7A15-B321-4E67-9E47-60CAC7111159}" name="Code" dataDxfId="6" dataCellStyle="Normal_tblMfgName_Generic Part Number and Serial Number Schema 7-10-10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Brands (Called &quot;Manufacurers&quot; by users" dataDxfId="5" dataCellStyle="Normal_tblMfgName_Generic Part Number and Serial Number Schema 7-10-10"/>
-    <tableColumn id="7" xr3:uid="{AF0B39B8-BFDA-42A9-B0D0-1A4D44F482F5}" name="NFPA99" dataDxfId="4" dataCellStyle="Normal_tblMfgName_Generic Part Number and Serial Number Schema 7-10-10"/>
-    <tableColumn id="8" xr3:uid="{BE9B69F8-ADE1-4DE0-82E2-33E9E4DD49BF}" name="HTM" dataDxfId="3" dataCellStyle="Normal_tblMfgName_Generic Part Number and Serial Number Schema 7-10-10"/>
-    <tableColumn id="9" xr3:uid="{1194E2AC-5F33-4E95-9056-526BAE128357}" name="ISO" dataDxfId="2" dataCellStyle="Normal_tblMfgName_Generic Part Number and Serial Number Schema 7-10-10"/>
-    <tableColumn id="10" xr3:uid="{7F71F197-9F0A-4AA3-AF04-9036CF43B9C4}" name="Non Med" dataDxfId="1" dataCellStyle="Normal_tblMfgName_Generic Part Number and Serial Number Schema 7-10-10"/>
+    <tableColumn id="3" xr3:uid="{1FFC7A15-B321-4E67-9E47-60CAC7111159}" name="Code" dataDxfId="5" dataCellStyle="Normal_tblMfgName_Generic Part Number and Serial Number Schema 7-10-10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Brands (Called &quot;Manufacurers&quot; by users" dataDxfId="4" dataCellStyle="Normal_tblMfgName_Generic Part Number and Serial Number Schema 7-10-10"/>
+    <tableColumn id="7" xr3:uid="{AF0B39B8-BFDA-42A9-B0D0-1A4D44F482F5}" name="NFPA99" dataDxfId="3" dataCellStyle="Normal_tblMfgName_Generic Part Number and Serial Number Schema 7-10-10"/>
+    <tableColumn id="8" xr3:uid="{BE9B69F8-ADE1-4DE0-82E2-33E9E4DD49BF}" name="HTM" dataDxfId="2" dataCellStyle="Normal_tblMfgName_Generic Part Number and Serial Number Schema 7-10-10"/>
+    <tableColumn id="9" xr3:uid="{1194E2AC-5F33-4E95-9056-526BAE128357}" name="ISO" dataDxfId="1" dataCellStyle="Normal_tblMfgName_Generic Part Number and Serial Number Schema 7-10-10"/>
+    <tableColumn id="10" xr3:uid="{7F71F197-9F0A-4AA3-AF04-9036CF43B9C4}" name="Non Med" dataDxfId="0" dataCellStyle="Normal_tblMfgName_Generic Part Number and Serial Number Schema 7-10-10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3577,15 +3578,15 @@
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="29.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" customWidth="1"/>
-    <col min="5" max="5" width="62.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="62.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>139</v>
       </c>
@@ -3593,7 +3594,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>143</v>
       </c>
@@ -3610,7 +3611,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -3618,7 +3619,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>142</v>
       </c>
@@ -3635,7 +3636,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>145</v>
       </c>
@@ -3646,7 +3647,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2</v>
       </c>
@@ -3654,7 +3655,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>149</v>
       </c>
@@ -3674,7 +3675,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>153</v>
       </c>
@@ -3694,7 +3695,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>3</v>
       </c>
@@ -3702,17 +3703,17 @@
         <v>162</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>164</v>
       </c>
@@ -3723,7 +3724,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>165</v>
       </c>
@@ -3737,12 +3738,12 @@
         <v>166</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>175</v>
       </c>
@@ -3756,37 +3757,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" outlineLevelCol="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.453125" style="43" customWidth="1"/>
-    <col min="2" max="2" width="24.453125" style="44" customWidth="1"/>
-    <col min="3" max="3" width="14.453125" style="43" customWidth="1"/>
-    <col min="4" max="4" width="17.1796875" style="43" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.54296875" style="43" customWidth="1" outlineLevel="1"/>
-    <col min="6" max="6" width="13.7265625" style="43" customWidth="1" outlineLevel="1"/>
-    <col min="7" max="7" width="13.1796875" style="43" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="8" width="12.26953125" style="43" customWidth="1" outlineLevel="1"/>
-    <col min="9" max="9" width="18.81640625" style="43" customWidth="1" outlineLevel="1"/>
-    <col min="10" max="10" width="26.26953125" style="43" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="29.26953125" style="43" customWidth="1"/>
+    <col min="1" max="1" width="19.42578125" style="43" customWidth="1"/>
+    <col min="2" max="2" width="24.42578125" style="44" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" style="43" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" style="43" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="43" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="6" width="13.7109375" style="43" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="13.140625" style="43" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="12.28515625" style="43" customWidth="1" outlineLevel="1"/>
+    <col min="9" max="9" width="18.85546875" style="43" customWidth="1" outlineLevel="1"/>
+    <col min="10" max="10" width="26.28515625" style="43" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="29.28515625" style="43" customWidth="1"/>
     <col min="12" max="12" width="23" style="43" customWidth="1"/>
-    <col min="13" max="13" width="19.453125" style="43" customWidth="1"/>
-    <col min="14" max="14" width="13.26953125" style="43" customWidth="1"/>
-    <col min="15" max="15" width="25.453125" style="43" customWidth="1"/>
-    <col min="16" max="16" width="15.54296875" style="43" customWidth="1"/>
-    <col min="17" max="17" width="13.54296875" style="43" customWidth="1"/>
-    <col min="18" max="18" width="43.7265625" style="43" customWidth="1"/>
-    <col min="19" max="19" width="45.26953125" style="43" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.42578125" style="43" customWidth="1"/>
+    <col min="14" max="14" width="13.28515625" style="43" customWidth="1"/>
+    <col min="15" max="15" width="25.42578125" style="43" customWidth="1"/>
+    <col min="16" max="16" width="15.5703125" style="43" customWidth="1"/>
+    <col min="17" max="17" width="13.5703125" style="43" customWidth="1"/>
+    <col min="18" max="18" width="43.7109375" style="43" customWidth="1"/>
+    <col min="19" max="19" width="45.28515625" style="43" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="15" style="43" customWidth="1"/>
-    <col min="21" max="21" width="24.7265625" style="43" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="8.7265625" style="43"/>
+    <col min="21" max="21" width="24.7109375" style="43" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="8.7109375" style="43"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="45" customFormat="1" ht="27.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" s="45" customFormat="1" ht="27.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
@@ -3800,7 +3801,7 @@
         <v>10</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F1" s="9" t="s">
         <v>6</v>
@@ -3845,7 +3846,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="11">
         <v>860278</v>
       </c>
@@ -3861,10 +3862,10 @@
         <v>40</v>
       </c>
       <c r="K2" s="46" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="M2" s="3" t="s">
         <v>211</v>
@@ -3873,7 +3874,7 @@
         <v>222</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="P2" s="3" t="s">
         <v>306</v>
@@ -3882,7 +3883,7 @@
       <c r="R2" s="3"/>
       <c r="S2" s="47"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>7132</v>
       </c>
@@ -3900,10 +3901,10 @@
         <v>35</v>
       </c>
       <c r="K3" s="46" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="M3" s="3" t="s">
         <v>212</v>
@@ -3912,7 +3913,7 @@
         <v>226</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="P3" s="3" t="s">
         <v>306</v>
@@ -3921,7 +3922,7 @@
       <c r="R3" s="3"/>
       <c r="S3" s="47"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>257</v>
       </c>
@@ -3929,7 +3930,7 @@
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
@@ -3939,10 +3940,10 @@
         <v>50</v>
       </c>
       <c r="K4" s="46" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="M4" s="3" t="s">
         <v>216</v>
@@ -3951,7 +3952,7 @@
         <v>221</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="P4" s="3" t="s">
         <v>306</v>
@@ -3960,7 +3961,7 @@
       <c r="R4" s="3"/>
       <c r="S4" s="47"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="11"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -3986,7 +3987,7 @@
         <v>13</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="P5" s="3" t="s">
         <v>306</v>
@@ -3995,7 +3996,7 @@
       <c r="R5" s="3"/>
       <c r="S5" s="47"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>253</v>
       </c>
@@ -4025,7 +4026,7 @@
         <v>15</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="P6" s="3" t="s">
         <v>306</v>
@@ -4034,7 +4035,7 @@
       <c r="R6" s="3"/>
       <c r="S6" s="47"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="11"/>
       <c r="B7" s="3" t="s">
         <v>254</v>
@@ -4053,7 +4054,7 @@
         <v>210</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="M7" s="3" t="s">
         <v>212</v>
@@ -4071,7 +4072,7 @@
       <c r="R7" s="3"/>
       <c r="S7" s="47"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>255</v>
       </c>
@@ -4092,7 +4093,7 @@
         <v>210</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="M8" s="3" t="s">
         <v>211</v>
@@ -4101,7 +4102,7 @@
         <v>12</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="P8" s="46" t="s">
         <v>306</v>
@@ -4110,7 +4111,7 @@
       <c r="R8" s="3"/>
       <c r="S8" s="47"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>260</v>
       </c>
@@ -4134,13 +4135,13 @@
         <v>55</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="N9" s="46" t="s">
         <v>295</v>
       </c>
       <c r="O9" s="3" t="s">
-        <v>308</v>
+        <v>364</v>
       </c>
       <c r="P9" s="46" t="s">
         <v>306</v>
@@ -4149,7 +4150,7 @@
       <c r="R9" s="3"/>
       <c r="S9" s="47"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>264</v>
       </c>
@@ -4170,16 +4171,16 @@
         <v>205</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="N10" s="46" t="s">
         <v>293</v>
       </c>
       <c r="O10" s="3" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="P10" s="46" t="s">
         <v>306</v>
@@ -4188,7 +4189,7 @@
       <c r="R10" s="3"/>
       <c r="S10" s="47"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>263</v>
       </c>
@@ -4227,7 +4228,7 @@
       <c r="R11" s="3"/>
       <c r="S11" s="47"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
         <v>265</v>
       </c>
@@ -4257,7 +4258,7 @@
         <v>51</v>
       </c>
       <c r="O12" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="P12" s="46" t="s">
         <v>306</v>
@@ -4266,7 +4267,7 @@
       <c r="R12" s="3"/>
       <c r="S12" s="47"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="11"/>
       <c r="B13" s="3" t="s">
         <v>274</v>
@@ -4294,7 +4295,7 @@
         <v>199</v>
       </c>
       <c r="O13" s="3" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="P13" s="46" t="s">
         <v>306</v>
@@ -4303,7 +4304,7 @@
       <c r="R13" s="3"/>
       <c r="S13" s="47"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="11"/>
       <c r="B14" s="3" t="s">
         <v>275</v>
@@ -4322,7 +4323,7 @@
         <v>206</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>231</v>
@@ -4331,7 +4332,7 @@
         <v>198</v>
       </c>
       <c r="O14" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="P14" s="46" t="s">
         <v>306</v>
@@ -4340,7 +4341,7 @@
       <c r="R14" s="3"/>
       <c r="S14" s="47"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>266</v>
       </c>
@@ -4370,7 +4371,7 @@
         <v>14</v>
       </c>
       <c r="O15" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="P15" s="46" t="s">
         <v>306</v>
@@ -4379,7 +4380,7 @@
       <c r="R15" s="3"/>
       <c r="S15" s="47"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>267</v>
       </c>
@@ -4409,7 +4410,7 @@
         <v>246</v>
       </c>
       <c r="O16" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="P16" s="46" t="s">
         <v>306</v>
@@ -4418,7 +4419,7 @@
       <c r="R16" s="3"/>
       <c r="S16" s="47"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
         <v>268</v>
       </c>
@@ -4448,7 +4449,7 @@
         <v>248</v>
       </c>
       <c r="O17" s="3" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="P17" s="46" t="s">
         <v>306</v>
@@ -4457,7 +4458,7 @@
       <c r="R17" s="3"/>
       <c r="S17" s="47"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
         <v>269</v>
       </c>
@@ -4487,7 +4488,7 @@
         <v>209</v>
       </c>
       <c r="O18" s="3" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="P18" s="46" t="s">
         <v>306</v>
@@ -4496,7 +4497,7 @@
       <c r="R18" s="3"/>
       <c r="S18" s="47"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
         <v>270</v>
       </c>
@@ -4517,7 +4518,7 @@
         <v>137</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="M19" s="3" t="s">
         <v>239</v>
@@ -4535,7 +4536,7 @@
       <c r="R19" s="3"/>
       <c r="S19" s="47"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
         <v>252</v>
       </c>
@@ -4565,7 +4566,7 @@
         <v>209</v>
       </c>
       <c r="O20" s="3" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="P20" s="46" t="s">
         <v>306</v>
@@ -4574,7 +4575,7 @@
       <c r="R20" s="3"/>
       <c r="S20" s="47"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
         <v>271</v>
       </c>
@@ -4592,10 +4593,10 @@
         <v>34</v>
       </c>
       <c r="K21" s="46" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="L21" s="3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="M21" s="3" t="s">
         <v>287</v>
@@ -4604,7 +4605,7 @@
         <v>209</v>
       </c>
       <c r="O21" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="P21" s="46" t="s">
         <v>306</v>
@@ -4613,7 +4614,7 @@
       <c r="R21" s="3"/>
       <c r="S21" s="47"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="11"/>
       <c r="B22" s="3" t="s">
         <v>272</v>
@@ -4629,10 +4630,10 @@
         <v>19</v>
       </c>
       <c r="K22" s="46" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="L22" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="M22" s="3" t="s">
         <v>234</v>
@@ -4641,7 +4642,7 @@
         <v>209</v>
       </c>
       <c r="O22" s="3" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="P22" s="46" t="s">
         <v>306</v>
@@ -4694,89 +4695,94 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:A15"/>
+  <dimension ref="A1:A16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.453125" customWidth="1"/>
+    <col min="1" max="1" width="32.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="48" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A11" s="7" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>209</v>
       </c>
     </row>
@@ -4797,22 +4803,22 @@
   <dimension ref="A1:H469"/>
   <sheetViews>
     <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+      <selection activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.81640625" customWidth="1"/>
-    <col min="3" max="3" width="32.54296875" customWidth="1"/>
-    <col min="8" max="8" width="22.81640625" customWidth="1"/>
+    <col min="1" max="1" width="34.85546875" customWidth="1"/>
+    <col min="3" max="3" width="32.5703125" customWidth="1"/>
+    <col min="8" max="8" width="22.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>17</v>
       </c>
@@ -4821,213 +4827,213 @@
         <v>282</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>219</v>
       </c>
       <c r="B3" s="18"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="B4" s="19"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>321</v>
       </c>
-      <c r="B4" s="19"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="B5" s="19"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>322</v>
-      </c>
-      <c r="B5" s="19"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>323</v>
       </c>
       <c r="B6" s="19"/>
       <c r="C6" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>323</v>
+      </c>
+      <c r="B7" s="19"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>324</v>
       </c>
-      <c r="B7" s="19"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+      <c r="B8" s="19"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>325</v>
       </c>
-      <c r="B8" s="19"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+      <c r="B9" s="19"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>326</v>
       </c>
-      <c r="B9" s="19"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>327</v>
-      </c>
       <c r="B10" s="19"/>
     </row>
-    <row r="11" spans="1:3" s="31" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="34" t="s">
+        <v>337</v>
+      </c>
+      <c r="B11" s="33"/>
+    </row>
+    <row r="12" spans="1:3" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="31" t="s">
         <v>338</v>
       </c>
-      <c r="B11" s="33"/>
-    </row>
-    <row r="12" spans="1:3" s="31" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="31" t="s">
+      <c r="B12" s="33"/>
+    </row>
+    <row r="13" spans="1:3" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="31" t="s">
         <v>339</v>
-      </c>
-      <c r="B12" s="33"/>
-    </row>
-    <row r="13" spans="1:3" s="31" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="31" t="s">
-        <v>340</v>
       </c>
       <c r="B13" s="33"/>
       <c r="C13" s="32" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="14" spans="1:3" s="31" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="31" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B14" s="33"/>
     </row>
-    <row r="15" spans="1:3" s="31" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="31" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B15" s="33"/>
     </row>
-    <row r="16" spans="1:3" s="31" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="34" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B16" s="33"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>243</v>
       </c>
       <c r="B17" s="21"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>289</v>
       </c>
       <c r="B18" s="21"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B19" s="21"/>
       <c r="C19" s="15" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>244</v>
       </c>
       <c r="B20" s="21"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>290</v>
       </c>
       <c r="B21" s="21"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>245</v>
       </c>
       <c r="B22" s="21"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="31" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B23" s="21"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="31" t="s">
         <v>242</v>
       </c>
       <c r="B24" s="21"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>55</v>
       </c>
       <c r="B25" s="22"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B26" s="22"/>
       <c r="C26" s="15" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B27" s="22"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>56</v>
       </c>
       <c r="B28" s="22"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B29" s="22"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>174</v>
       </c>
       <c r="B30" s="23"/>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>204</v>
       </c>
       <c r="B31" s="23"/>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>202</v>
       </c>
       <c r="B32" s="23"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>178</v>
       </c>
       <c r="B33" s="23"/>
       <c r="H33" s="17"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>193</v>
       </c>
       <c r="B34" s="23"/>
       <c r="H34" s="17"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>194</v>
       </c>
@@ -5037,79 +5043,79 @@
       </c>
       <c r="H35" s="17"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>195</v>
       </c>
       <c r="B36" s="23"/>
       <c r="H36" s="17"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>196</v>
       </c>
       <c r="B37" s="23"/>
       <c r="H37" s="17"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>197</v>
       </c>
       <c r="B38" s="23"/>
       <c r="H38" s="17"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>203</v>
       </c>
       <c r="B39" s="23"/>
       <c r="H39" s="17"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B40" s="23"/>
       <c r="H40" s="17"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B41" s="23"/>
       <c r="H41" s="17"/>
     </row>
-    <row r="42" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="34" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B42" s="23"/>
       <c r="H42" s="35"/>
     </row>
-    <row r="43" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="31" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B43" s="23"/>
       <c r="H43" s="35"/>
     </row>
-    <row r="44" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="31" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B44" s="23"/>
       <c r="H44" s="35"/>
     </row>
-    <row r="45" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="31" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B45" s="23"/>
       <c r="H45" s="35"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B46" s="24"/>
       <c r="C46" s="15" t="s">
@@ -5117,16 +5123,16 @@
       </c>
       <c r="D46" s="28"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>208</v>
       </c>
       <c r="B47" s="26"/>
       <c r="D47" s="28"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B48" s="26"/>
       <c r="C48" t="s">
@@ -5134,50 +5140,50 @@
       </c>
       <c r="D48" s="28"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>240</v>
       </c>
       <c r="B49" s="26"/>
       <c r="D49" s="28"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>285</v>
       </c>
       <c r="B50" s="14"/>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>52</v>
       </c>
       <c r="B51" s="14"/>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B52" s="14"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>286</v>
       </c>
       <c r="B53" s="14"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B54" s="14"/>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
         <v>53</v>
       </c>
       <c r="B55" s="14"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
         <v>54</v>
       </c>
@@ -5186,37 +5192,37 @@
         <v>284</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="31" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B57" s="14"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>189</v>
       </c>
       <c r="B58" s="14"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>190</v>
       </c>
       <c r="B59" s="14"/>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>249</v>
       </c>
       <c r="B60" s="21"/>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B61" s="21"/>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>250</v>
       </c>
@@ -5225,25 +5231,25 @@
         <v>209</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>209</v>
       </c>
       <c r="B63" s="21"/>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B64" s="27"/>
       <c r="C64" s="15" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="468" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="468" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A468" s="4"/>
     </row>
-    <row r="469" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="469" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A469" s="4"/>
     </row>
   </sheetData>
@@ -5270,74 +5276,74 @@
       <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.54296875" customWidth="1"/>
-    <col min="3" max="3" width="13.1796875" customWidth="1"/>
-    <col min="4" max="4" width="15.7265625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.5703125" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>235</v>
       </c>
       <c r="B2" s="23"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B3" s="23"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B4" s="23"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>230</v>
       </c>
       <c r="B5" s="23"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>231</v>
       </c>
       <c r="B6" s="23"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B7" s="23"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B8" s="23"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>232</v>
       </c>
       <c r="B9" s="23"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B10" s="23"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>233</v>
       </c>
@@ -5346,53 +5352,53 @@
         <v>206</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="36" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B12" s="23"/>
       <c r="C12" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>296</v>
       </c>
       <c r="B13" s="23"/>
       <c r="C13" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>234</v>
       </c>
       <c r="B14" s="23"/>
       <c r="C14" s="30" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>228</v>
       </c>
       <c r="B15" s="23"/>
       <c r="C15" s="30"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B16" s="23"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B17" s="23"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>227</v>
       </c>
@@ -5402,37 +5408,37 @@
       <c r="G18" s="28"/>
       <c r="H18" s="28"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B19" s="23"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B20" s="23"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>236</v>
       </c>
       <c r="B21" s="23"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>229</v>
       </c>
       <c r="B22" s="23"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>237</v>
       </c>
       <c r="B23" s="26"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>238</v>
       </c>
@@ -5441,7 +5447,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>239</v>
       </c>
@@ -5450,19 +5456,19 @@
         <v>137</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>287</v>
       </c>
       <c r="B26" s="26"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>288</v>
       </c>
       <c r="B27" s="26"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>211</v>
       </c>
@@ -5472,7 +5478,7 @@
       </c>
       <c r="E28" s="28"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>212</v>
       </c>
@@ -5482,7 +5488,7 @@
       </c>
       <c r="E29" s="28"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>216</v>
       </c>
@@ -5492,12 +5498,12 @@
       </c>
       <c r="E30" s="28"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="310" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A310" s="4"/>
     </row>
   </sheetData>
@@ -5520,18 +5526,18 @@
       <selection activeCell="F51" sqref="F51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.7265625" customWidth="1"/>
-    <col min="3" max="3" width="16.453125" customWidth="1"/>
+    <col min="1" max="1" width="18.7109375" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -5541,7 +5547,7 @@
       <c r="F2" s="28"/>
       <c r="G2" s="28"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -5551,7 +5557,7 @@
       <c r="F3" s="28"/>
       <c r="G3" s="28"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -5561,7 +5567,7 @@
       <c r="F4" s="28"/>
       <c r="G4" s="28"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -5571,7 +5577,7 @@
       <c r="F5" s="28"/>
       <c r="G5" s="28"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -5584,7 +5590,7 @@
       <c r="F6" s="28"/>
       <c r="G6" s="28"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>246</v>
       </c>
@@ -5597,7 +5603,7 @@
       <c r="F7" s="28"/>
       <c r="G7" s="28"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>247</v>
       </c>
@@ -5610,7 +5616,7 @@
       <c r="F8" s="28"/>
       <c r="G8" s="28"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>248</v>
       </c>
@@ -5620,7 +5626,7 @@
       <c r="F9" s="28"/>
       <c r="G9" s="28"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>209</v>
       </c>
@@ -5630,43 +5636,43 @@
       <c r="F10" s="28"/>
       <c r="G10" s="28"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>300</v>
       </c>
       <c r="B11" s="20"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>301</v>
       </c>
       <c r="B12" s="20"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>217</v>
       </c>
       <c r="B13" s="20"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>220</v>
       </c>
       <c r="B14" s="20"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>221</v>
       </c>
       <c r="B15" s="20"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="31" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B16" s="20"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>222</v>
       </c>
@@ -5675,154 +5681,154 @@
         <v>207</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>223</v>
       </c>
       <c r="B18" s="20"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>224</v>
       </c>
       <c r="B19" s="20"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>225</v>
       </c>
       <c r="B20" s="20"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>226</v>
       </c>
       <c r="B21" s="20"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>297</v>
       </c>
       <c r="B22" s="20"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>298</v>
       </c>
       <c r="B23" s="20"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>299</v>
       </c>
       <c r="B24" s="20"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>302</v>
       </c>
       <c r="B25" s="20"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>303</v>
       </c>
       <c r="B26" s="20"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>304</v>
       </c>
       <c r="B27" s="20"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>305</v>
       </c>
       <c r="B28" s="20"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>307</v>
       </c>
       <c r="B29" s="20"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B30" s="20"/>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B31" s="20"/>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>51</v>
       </c>
       <c r="B32" s="23"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>198</v>
       </c>
       <c r="B33" s="23"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>199</v>
       </c>
       <c r="B34" s="23"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B35" s="23"/>
       <c r="C35" s="15" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>200</v>
       </c>
       <c r="B36" s="23"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>201</v>
       </c>
       <c r="B37" s="23"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B38" s="23"/>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B39" s="23"/>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>291</v>
       </c>
       <c r="B40" s="22"/>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>292</v>
       </c>
       <c r="B41" s="22"/>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>293</v>
       </c>
@@ -5831,34 +5837,34 @@
         <v>205</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="8" t="s">
         <v>294</v>
       </c>
       <c r="B43" s="22"/>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>295</v>
       </c>
       <c r="B44" s="22"/>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>136</v>
       </c>
       <c r="B45" s="19"/>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B46" s="19"/>
       <c r="C46" s="25" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>214</v>
       </c>
@@ -5866,7 +5872,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A30">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -5883,100 +5889,100 @@
   <dimension ref="A1:A18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="A65" sqref="A65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.7265625" customWidth="1"/>
+    <col min="1" max="1" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>209</v>
       </c>
@@ -6001,59 +6007,59 @@
       <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.26953125" customWidth="1"/>
+    <col min="1" max="1" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="37" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="37" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="37" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="37" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="37" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="37" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="37" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A8" s="37" t="s">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="37" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A9" s="37" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="37" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
   </sheetData>
@@ -6075,14 +6081,14 @@
       <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" customHeight="1" outlineLevelCol="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="13.5" customHeight="1" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="43.1796875" customWidth="1"/>
-    <col min="3" max="6" width="9.1796875" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="7" max="7" width="8.7265625" collapsed="1"/>
+    <col min="2" max="2" width="43.140625" customWidth="1"/>
+    <col min="3" max="6" width="9.140625" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="8.7109375" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>133</v>
       </c>
@@ -6102,7 +6108,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="40" t="s">
         <v>58</v>
       </c>
@@ -6114,7 +6120,7 @@
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
     </row>
-    <row r="3" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="38" t="s">
         <v>63</v>
       </c>
@@ -6126,7 +6132,7 @@
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="38" t="s">
         <v>65</v>
       </c>
@@ -6138,7 +6144,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="38" t="s">
         <v>60</v>
       </c>
@@ -6152,7 +6158,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="38" t="s">
         <v>62</v>
       </c>
@@ -6166,7 +6172,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="38" t="s">
         <v>57</v>
       </c>
@@ -6178,7 +6184,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="38"/>
       <c r="B8" s="37" t="s">
         <v>19</v>
@@ -6190,7 +6196,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="38"/>
       <c r="B9" s="37" t="s">
         <v>18</v>
@@ -6202,7 +6208,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="38"/>
       <c r="B10" s="37" t="s">
         <v>20</v>
@@ -6212,7 +6218,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="38"/>
       <c r="B11" s="37" t="s">
         <v>21</v>
@@ -6228,7 +6234,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="38" t="s">
         <v>67</v>
       </c>
@@ -6240,7 +6246,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="38" t="s">
         <v>69</v>
       </c>
@@ -6252,7 +6258,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="38"/>
       <c r="B14" s="37" t="s">
         <v>22</v>
@@ -6264,7 +6270,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="38"/>
       <c r="B15" s="37" t="s">
         <v>23</v>
@@ -6274,7 +6280,7 @@
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="38" t="s">
         <v>71</v>
       </c>
@@ -6286,7 +6292,7 @@
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="38" t="s">
         <v>75</v>
       </c>
@@ -6298,7 +6304,7 @@
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
     </row>
-    <row r="18" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="38" t="s">
         <v>73</v>
       </c>
@@ -6310,7 +6316,7 @@
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
     </row>
-    <row r="19" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="38"/>
       <c r="B19" s="37" t="s">
         <v>24</v>
@@ -6324,7 +6330,7 @@
       </c>
       <c r="F19" s="1"/>
     </row>
-    <row r="20" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="38" t="s">
         <v>77</v>
       </c>
@@ -6336,7 +6342,7 @@
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
     </row>
-    <row r="21" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="38"/>
       <c r="B21" s="37" t="s">
         <v>26</v>
@@ -6352,7 +6358,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="38"/>
       <c r="B22" s="37" t="s">
         <v>25</v>
@@ -6368,7 +6374,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="38"/>
       <c r="B23" s="37" t="s">
         <v>27</v>
@@ -6378,7 +6384,7 @@
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
     </row>
-    <row r="24" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="38" t="s">
         <v>81</v>
       </c>
@@ -6390,7 +6396,7 @@
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
     </row>
-    <row r="25" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="38" t="s">
         <v>79</v>
       </c>
@@ -6402,7 +6408,7 @@
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
     </row>
-    <row r="26" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="38"/>
       <c r="B26" s="37" t="s">
         <v>28</v>
@@ -6412,7 +6418,7 @@
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
     </row>
-    <row r="27" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="38"/>
       <c r="B27" s="37" t="s">
         <v>30</v>
@@ -6424,7 +6430,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="38" t="s">
         <v>82</v>
       </c>
@@ -6436,7 +6442,7 @@
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
     </row>
-    <row r="29" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="38"/>
       <c r="B29" s="37" t="s">
         <v>31</v>
@@ -6448,7 +6454,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="38"/>
       <c r="B30" s="37" t="s">
         <v>32</v>
@@ -6460,7 +6466,7 @@
       </c>
       <c r="F30" s="1"/>
     </row>
-    <row r="31" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="38" t="s">
         <v>84</v>
       </c>
@@ -6472,7 +6478,7 @@
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
     </row>
-    <row r="32" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="38"/>
       <c r="B32" s="37" t="s">
         <v>33</v>
@@ -6484,7 +6490,7 @@
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
     </row>
-    <row r="33" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="38"/>
       <c r="B33" s="37" t="s">
         <v>36</v>
@@ -6496,7 +6502,7 @@
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
     </row>
-    <row r="34" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="38"/>
       <c r="B34" s="37" t="s">
         <v>35</v>
@@ -6508,7 +6514,7 @@
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
     </row>
-    <row r="35" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="38"/>
       <c r="B35" s="37" t="s">
         <v>34</v>
@@ -6520,7 +6526,7 @@
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
     </row>
-    <row r="36" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="38" t="s">
         <v>86</v>
       </c>
@@ -6532,7 +6538,7 @@
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
     </row>
-    <row r="37" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="38"/>
       <c r="B37" s="38" t="s">
         <v>37</v>
@@ -6544,7 +6550,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="38" t="s">
         <v>89</v>
       </c>
@@ -6558,7 +6564,7 @@
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
     </row>
-    <row r="39" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="38" t="s">
         <v>88</v>
       </c>
@@ -6570,7 +6576,7 @@
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
     </row>
-    <row r="40" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="38" t="s">
         <v>91</v>
       </c>
@@ -6582,7 +6588,7 @@
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
     </row>
-    <row r="41" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="38" t="s">
         <v>93</v>
       </c>
@@ -6596,7 +6602,7 @@
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
     </row>
-    <row r="42" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="38"/>
       <c r="B42" s="38" t="s">
         <v>40</v>
@@ -6606,7 +6612,7 @@
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
     </row>
-    <row r="43" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="38"/>
       <c r="B43" s="37" t="s">
         <v>41</v>
@@ -6618,7 +6624,7 @@
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
     </row>
-    <row r="44" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="38"/>
       <c r="B44" s="37" t="s">
         <v>50</v>
@@ -6628,7 +6634,7 @@
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
     </row>
-    <row r="45" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="38" t="s">
         <v>99</v>
       </c>
@@ -6642,7 +6648,7 @@
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
     </row>
-    <row r="46" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="38" t="s">
         <v>97</v>
       </c>
@@ -6654,7 +6660,7 @@
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
     </row>
-    <row r="47" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="38"/>
       <c r="B47" s="37" t="s">
         <v>258</v>
@@ -6664,7 +6670,7 @@
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
     </row>
-    <row r="48" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="38" t="s">
         <v>101</v>
       </c>
@@ -6676,7 +6682,7 @@
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
     </row>
-    <row r="49" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="38" t="s">
         <v>95</v>
       </c>
@@ -6688,7 +6694,7 @@
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
     </row>
-    <row r="50" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="38"/>
       <c r="B50" s="37" t="s">
         <v>39</v>
@@ -6698,7 +6704,7 @@
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
     </row>
-    <row r="51" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="38"/>
       <c r="B51" s="37" t="s">
         <v>42</v>
@@ -6712,7 +6718,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="38" t="s">
         <v>103</v>
       </c>
@@ -6724,7 +6730,7 @@
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
     </row>
-    <row r="53" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="38" t="s">
         <v>173</v>
       </c>
@@ -6740,7 +6746,7 @@
       </c>
       <c r="F53" s="1"/>
     </row>
-    <row r="54" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="38" t="s">
         <v>105</v>
       </c>
@@ -6752,7 +6758,7 @@
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
     </row>
-    <row r="55" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="38"/>
       <c r="B55" s="37" t="s">
         <v>43</v>
@@ -6764,7 +6770,7 @@
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
     </row>
-    <row r="56" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="38" t="s">
         <v>107</v>
       </c>
@@ -6776,7 +6782,7 @@
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
     </row>
-    <row r="57" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="38"/>
       <c r="B57" s="38" t="s">
         <v>44</v>
@@ -6786,7 +6792,7 @@
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
     </row>
-    <row r="58" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="38"/>
       <c r="B58" s="38" t="s">
         <v>45</v>
@@ -6796,7 +6802,7 @@
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
     </row>
-    <row r="59" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="38" t="s">
         <v>111</v>
       </c>
@@ -6808,7 +6814,7 @@
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
     </row>
-    <row r="60" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="38" t="s">
         <v>109</v>
       </c>
@@ -6820,7 +6826,7 @@
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
     </row>
-    <row r="61" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="38" t="s">
         <v>113</v>
       </c>
@@ -6832,7 +6838,7 @@
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
     </row>
-    <row r="62" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="38" t="s">
         <v>115</v>
       </c>
@@ -6844,7 +6850,7 @@
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
     </row>
-    <row r="63" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="38" t="s">
         <v>119</v>
       </c>
@@ -6856,7 +6862,7 @@
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
     </row>
-    <row r="64" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="38" t="s">
         <v>123</v>
       </c>
@@ -6868,7 +6874,7 @@
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
     </row>
-    <row r="65" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="38" t="s">
         <v>117</v>
       </c>
@@ -6880,7 +6886,7 @@
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
     </row>
-    <row r="66" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="38" t="s">
         <v>121</v>
       </c>
@@ -6894,19 +6900,19 @@
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
     </row>
-    <row r="67" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="38" t="s">
         <v>134</v>
       </c>
       <c r="B67" s="37" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
     </row>
-    <row r="68" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="38" t="s">
         <v>125</v>
       </c>
@@ -6918,7 +6924,7 @@
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
     </row>
-    <row r="69" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="38" t="s">
         <v>135</v>
       </c>
@@ -6934,7 +6940,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="41" t="s">
         <v>131</v>
       </c>
@@ -6946,7 +6952,7 @@
       <c r="E70" s="2"/>
       <c r="F70" s="2"/>
     </row>
-    <row r="71" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="41" t="s">
         <v>127</v>
       </c>
@@ -6958,7 +6964,7 @@
       <c r="E71" s="2"/>
       <c r="F71" s="2"/>
     </row>
-    <row r="72" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="41" t="s">
         <v>129</v>
       </c>
@@ -6970,7 +6976,7 @@
       <c r="E72" s="2"/>
       <c r="F72" s="2"/>
     </row>
-    <row r="73" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="39"/>
     </row>
   </sheetData>
